--- a/results/open_metrics.xlsx
+++ b/results/open_metrics.xlsx
@@ -506,14 +506,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Product Catalog Service", "endpoints": [{"name": "/products", "method": "GET", "inputs": ["category", "search", "page", "size"], "outputs": ["product list"], "description": "Returns a paginated list of products, optionally filtered by category or search term."}, {"name": "/products/{productId}", "method": "GET", "inputs": ["productId"], "outputs": ["product details"], "description": "Returns detailed information about a specific product."}, {"name": "/products", "method": "POST", "inputs": ["product data"], "outputs": ["created product"], "description": "Adds a new product to the catalog (admin only)."}, {"name": "/products/{productId}", "method": "PUT", "inputs": ["productId", "updated product data"], "outputs": ["updated product"], "description": "Updates information for an existing product (admin only)."}], "user_stories": ["1", "4", "14", "18"], "parameters": ["productId", "category", "search", "page", "size", "product data"], "description": "Manages the catalog of products, including browsing, detailed product information, and admin management of products."}, {"name": "Shopping Cart Service", "endpoints": [{"name": "/carts/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["cart contents"], "description": "Retrieves the current shopping cart for a user."}, {"name": "/carts/{userId}/items", "method": "POST", "inputs": ["userId", "productId", "quantity"], "outputs": ["updated cart"], "description": "Adds a product to the user's shopping cart."}, {"name": "/carts/{userId}/items/{productId}", "method": "DELETE", "inputs": ["userId", "productId"], "outputs": ["updated cart"], "description": "Removes a product from the user's shopping cart."}], "user_stories": ["2", "15"], "parameters": ["userId", "productId", "quantity"], "description": "Handles adding, removing, and managing products in the customer's shopping cart."}, {"name": "Checkout Service", "endpoints": [{"name": "/checkout", "method": "POST", "inputs": ["userId", "cartId", "paymentInfo", "shippingAddress", "shippingOption"], "outputs": ["order confirmation", "orderId"], "description": "Processes the checkout for a user's cart, including payment, inventory reservation, and order creation."}, {"name": "/checkout/calculate", "method": "POST", "inputs": ["cartId", "shippingAddress", "shippingOption"], "outputs": ["tax", "shipping cost", "total"], "description": "Calculates tax and shipping costs for the current cart."}], "user_stories": ["5", "9", "17", "22"], "parameters": ["userId", "cartId", "paymentInfo", "shippingAddress", "shippingOption"], "description": "Manages the checkout process, including order placement, payment processing, tax and shipping calculation, and prevention of duplicate orders."}, {"name": "Recommendation Service", "endpoints": [{"name": "/recommendations/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["recommended products"], "description": "Returns a list of recommended products for a user based on preferences and behaviors."}], "user_stories": ["3", "11"], "parameters": ["userId"], "description": "Provides product recommendations based on user preferences, behaviors, and browsing or purchase history."}, {"name": "Email Notification Service", "endpoints": [{"name": "/notifications/order-confirmation", "method": "POST", "inputs": ["userId", "orderId", "email"], "outputs": ["notification status"], "description": "Sends an order confirmation email to the customer."}, {"name": "/notifications/promotions", "method": "POST", "inputs": ["userId", "email", "promotion details"], "outputs": ["notification status"], "description": "Sends a promotional email to the customer."}], "user_stories": ["6", "12", "25"], "parameters": ["userId", "orderId", "email", "promotion details"], "description": "Sends order confirmation emails and promotional emails to customers."}, {"name": "Shipping Service", "endpoints": [{"name": "/shipping/options", "method": "GET", "inputs": ["address", "cartId"], "outputs": ["shipping options"], "description": "Returns available shipping options for the given address and cart."}, {"name": "/shipping/track/{orderId}", "method": "GET", "inputs": ["orderId"], "outputs": ["shipping status"], "description": "Returns the shipping status for a given order."}, {"name": "/shipping/address/{orderId}", "method": "PUT", "inputs": ["orderId", "new address"], "outputs": ["update status"], "description": "Updates the shipping address for an order before it is shipped."}], "user_stories": ["7", "8", "19"], "parameters": ["address", "cartId", "orderId", "new address"], "description": "Manages shipping options, shipping address updates, and order tracking."}, {"name": "Currency Service", "endpoints": [{"name": "/currency/convert", "method": "GET", "inputs": ["amount", "fromCurrency", "toCurrency"], "outputs": ["converted amount"], "description": "Converts an amount from one currency to another."}, {"name": "/currency/rates", "method": "GET", "inputs": ["baseCurrency"], "outputs": ["exchange rates"], "description": "Returns current exchange rates for the base currency."}], "user_stories": ["10", "20"], "parameters": ["amount", "fromCurrency", "toCurrency", "baseCurrency"], "description": "Handles currency conversion and displays prices in the user's local currency."}, {"name": "Inventory Service", "endpoints": [{"name": "/inventory/{productId}", "method": "GET", "inputs": ["productId"], "outputs": ["inventory level"], "description": "Returns the current inventory level for a product."}, {"name": "/inventory/reserve", "method": "POST", "inputs": ["productId", "quantity", "orderId"], "outputs": ["reservation status"], "description": "Reserves inventory for an order."}, {"name": "/inventory/release", "method": "POST", "inputs": ["productId", "quantity", "orderId"], "outputs": ["release status"], "description": "Releases reserved inventory if an order is cancelled or fails."}], "user_stories": ["13"], "parameters": ["productId", "quantity", "orderId"], "description": "Manages inventory levels to prevent overselling of products."}, {"name": "Order History Service", "endpoints": [{"name": "/orders/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["order history"], "description": "Returns the order history for a user."}, {"name": "/orders/{userId}/reorder/{orderId}", "method": "POST", "inputs": ["userId", "orderId"], "outputs": ["new orderId"], "description": "Allows a user to reorder items from a previous order."}], "user_stories": ["21"], "parameters": ["userId", "orderId"], "description": "Allows customers to review their past orders and reorder items."}, {"name": "Ad Service", "endpoints": [{"name": "/ads/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["ad list"], "description": "Returns a list of targeted ads for a user based on browsing habits."}], "user_stories": ["16"], "parameters": ["userId"], "description": "Displays targeted ads to users based on their browsing habits."}, {"name": "Reporting Service", "endpoints": [{"name": "/reports/sales", "method": "GET", "inputs": ["startDate", "endDate", "filters"], "outputs": ["sales report"], "description": "Generates sales reports for admins to analyze business performance."}], "user_stories": ["23"], "parameters": ["startDate", "endDate", "filters"], "description": "Generates sales reports for admins to analyze business performance."}], "patterns": [{"group_name": "Product Catalog Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Product Catalog Service"], "explaination": "Each microservice should have its own database for data isolation and independent scaling, as recommended in the context."}, {"group_name": "Shopping Cart Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Shopping Cart Service"], "explaination": "The aggregate pattern ensures atomic updates to the cart and its items, as per the context and user stories 2 and 15."}, {"group_name": "Checkout Transaction Coordination", "implementation_pattern": "saga", "involved_microservices": ["Checkout Service", "Inventory Service", "Shipping Service", "Email Notification Service"], "explaination": "The checkout process spans multiple services and requires coordination for distributed transactions, as described in the context and user stories 5, 9, 17, 22, and 13."}, {"group_name": "Product Recommendations", "implementation_pattern": "api composition", "involved_microservices": ["Recommendation Service", "Product Catalog Service", "Order History Service"], "explaination": "Recommendations require data from multiple services (user behavior, product info, order history), making API composition suitable as per context and user stories 3 and 11."}, {"group_name": "Order History Query", "implementation_pattern": "cqrs", "involved_microservices": ["Order History Service"], "explaination": "Order history requires a materialized view for efficient queries, as per context and user story 21."}, {"group_name": "Sales Reporting", "implementation_pattern": "cqrs", "involved_microservices": ["Reporting Service"], "explaination": "Reporting requires complex queries and materialized views, as per context and user story 23."}, {"group_name": "Domain Events for Inter-Service Communication", "implementation_pattern": "domain event", "involved_microservices": ["Product Catalog Service", "Shopping Cart Service", "Checkout Service", "Inventory Service", "Email Notification Service", "Recommendation Service", "Ad Service", "Reporting Service", "Shipping Service"], "explaination": "Domain events are used for eventual consistency and to trigger actions in other services, as described in the context and multiple user stories (e.g., order placed, inventory updated, promotional emails)."}, {"group_name": "Currency Conversion", "implementation_pattern": "database per service", "involved_microservices": ["Currency Service"], "explaination": "Currency rates and conversions are managed independently, requiring their own datastore as per context and user stories 10 and 20."}, {"group_name": "Ad Targeting", "implementation_pattern": "api composition", "involved_microservices": ["Ad Service", "Product Catalog Service", "Recommendation Service"], "explaination": "Ad targeting uses user behavior and product data, making API composition suitable as per context and user story 16."}], "datastore": [{"datastore_name": "Product Catalog Database", "associated_microservices": ["Product Catalog Service"], "description": "Stores product information, categories, and details. Required for browsing, detailed views, and admin management (user stories 1, 4, 14, 18)."}, {"datastore_name": "Shopping Cart Database", "associated_microservices": ["Shopping Cart Service"], "description": "Stores user carts and cart items, ensuring atomic updates for add/remove operations (user stories 2, 15)."}, {"datastore_name": "Order Database", "associated_microservices": ["Checkout Service"], "description": "Stores orders, payment status, and transaction details for checkout and duplicate order prevention (user stories 5, 9, 17, 22)."}, {"datastore_name": "Recommendation Database", "associated_microservices": ["Recommendation Service"], "description": "Stores user preferences, recommendation models, and history for personalized suggestions (user stories 3, 11)."}, {"datastore_name": "Notification Database", "associated_microservices": ["Email Notification Service"], "description": "Stores email templates, notification logs, and user preferences for order and promotional emails (user stories 6, 12, 25)."}, {"datastore_name": "Shipping Database", "associated_microservices": ["Shipping Service"], "description": "Stores shipping options, addresses, and tracking information (user stories 7, 8, 19)."}, {"datastore_name": "Currency Database", "associated_microservices": ["Currency Service"], "description": "Stores currency rates and conversion history for accurate price display (user stories 10, 20)."}, {"datastore_name": "Inventory Database", "associated_microservices": ["Inventory Service"], "description": "Stores inventory levels and reservations to prevent overselling (user story 13)."}, {"datastore_name": "Order History Database", "associated_microservices": ["Order History Service"], "description": "Stores materialized views of user order history for efficient queries and reordering (user story 21, CQRS pattern)."}, {"datastore_name": "Ad Database", "associated_microservices": ["Ad Service"], "description": "Stores ad content, user targeting data, and impression logs (user story 16)."}, {"datastore_name": "Reporting Database", "associated_microservices": ["Reporting Service"], "description": "Stores materialized sales and business performance data for reporting (user story 23, CQRS pattern)."}]}</t>
+          <t>{'microservices': [{'name': 'Product Catalog Service', 'endpoints': [{'name': '/products', 'method': 'GET', 'inputs': ['filter', 'category', 'search_query'], 'outputs': ['product_list'], 'description': 'Browse and search products in the catalog'}, {'name': '/products/{product_id}', 'method': 'GET', 'inputs': ['product_id'], 'outputs': ['product_details', 'inventory_level'], 'description': 'Get detailed information about a specific product'}, {'name': '/products', 'method': 'POST', 'inputs': ['product_name', 'description', 'price', 'category', 'inventory_quantity'], 'outputs': ['product_id', 'creation_status'], 'description': 'Admin endpoint to add new products to the catalog'}, {'name': '/products/{product_id}', 'method': 'PUT', 'inputs': ['product_id', 'product_name', 'description', 'price', 'category', 'inventory_quantity'], 'outputs': ['update_status'], 'description': 'Admin endpoint to update product information'}, {'name': '/products/{product_id}/inventory', 'method': 'PUT', 'inputs': ['product_id', 'quantity_change'], 'outputs': ['new_inventory_level'], 'description': 'Update inventory levels for a product'}, {'name': '/products/{product_id}/inventory', 'method': 'GET', 'inputs': ['product_id'], 'outputs': ['inventory_level'], 'description': 'Check current inventory level for a product'}], 'user_stories': ['As a customer, I want to browse a catalog of products so that I can discover items to purchase.', 'As a customer, I want to view detailed information about a product so that I can make informed purchase decisions.', 'As an admin, I want to add new products to the catalog so that new merchandise is available to customers.', 'As an admin, I want to update product information so that the catalog remains accurate.', 'As a system, I want to manage inventory levels to prevent overselling of products.'], 'parameters': ['product_id', 'product_name', 'description', 'price', 'category', 'inventory_quantity', 'inventory_level'], 'description': 'Manages the product catalog including browsing, viewing product details, and admin operations for adding/updating products. Also handles inventory management.'}, {'name': 'Shopping Cart Service', 'endpoints': [{'name': '/cart/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['cart_items', 'total_amount'], 'description': 'Retrieve the current shopping cart for a user'}, {'name': '/cart/{user_id}/items', 'method': 'POST', 'inputs': ['user_id', 'product_id', 'quantity'], 'outputs': ['cart_status'], 'description': 'Add a product to the shopping cart'}, {'name': '/cart/{user_id}/items/{product_id}', 'method': 'DELETE', 'inputs': ['user_id', 'product_id'], 'outputs': ['cart_status'], 'description': 'Remove a product from the shopping cart'}, {'name': '/cart/{user_id}/items/{product_id}', 'method': 'PUT', 'inputs': ['user_id', 'product_id', 'quantity'], 'outputs': ['cart_status'], 'description': 'Update quantity of a product in the cart'}, {'name': '/cart/{user_id}', 'method': 'DELETE', 'inputs': ['user_id'], 'outputs': ['clear_status'], 'description': 'Clear all items from the cart'}], 'user_stories': ['As a customer, I want to add products to my shopping cart so that I can buy multiple items in one transaction.', 'As a customer, I want to remove items from my cart so that I can adjust my intended purchase.'], 'parameters': ['user_id', 'cart_id', 'cart_items', 'product_id', 'quantity', 'total_amount'], 'description': 'Handles shopping cart operations including adding and removing items from the cart.'}, {'name': 'Recommendation Service', 'endpoints': [{'name': '/recommendations/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['recommended_products'], 'description': 'Get personalized product recommendations for a user'}, {'name': '/recommendations/product/{product_id}', 'method': 'GET', 'inputs': ['product_id'], 'outputs': ['related_products'], 'description': 'Get related product recommendations based on a specific product'}, {'name': '/recommendations/{user_id}/events', 'method': 'POST', 'inputs': ['user_id', 'event_type', 'product_id', 'timestamp'], 'outputs': ['event_recorded'], 'description': 'Record user behavior events for recommendation modeling'}], 'user_stories': ['As a customer, I want to view recommendations based on my browsing or purchase history so that I can discover related products.', 'As a system, I want to provide product recommendations based on user preferences and behaviors.'], 'parameters': ['user_id', 'product_id', 'browsing_history', 'purchase_history', 'user_preferences', 'recommendation_score'], 'description': 'Provides personalized product recommendations based on user preferences, browsing history, and purchase behavior.'}, {'name': 'Checkout Service', 'endpoints': [{'name': '/checkout/initiate', 'method': 'POST', 'inputs': ['user_id', 'cart_id'], 'outputs': ['checkout_session_id', 'order_summary'], 'description': 'Initiate checkout process for a cart'}, {'name': '/checkout/{checkout_session_id}/calculate', 'method': 'POST', 'inputs': ['checkout_session_id', 'shipping_address', 'shipping_method'], 'outputs': ['subtotal', 'tax_amount', 'shipping_cost', 'total_amount'], 'description': 'Calculate tax and shipping costs for the order'}, {'name': '/checkout/{checkout_session_id}/payment', 'method': 'POST', 'inputs': ['checkout_session_id', 'payment_method', 'payment_details'], 'outputs': ['payment_status', 'transaction_id'], 'description': 'Process payment for the order'}, {'name': '/checkout/{checkout_session_id}/complete', 'method': 'POST', 'inputs': ['checkout_session_id', 'idempotency_key'], 'outputs': ['order_id', 'order_status'], 'description': 'Complete the checkout and create the order with duplicate prevention'}], 'user_stories': ['As a customer, I want to proceed to checkout and purchase the items in my cart so that I can complete my order.', 'As a customer, I want to pay using different payment methods so that I have flexibility at checkout.', 'As a system, I want to calculate tax and shipping costs at checkout for each order.', 'As a system, I want to prevent duplicate orders in case of network issues.'], 'parameters': ['checkout_session_id', 'order_id', 'user_id', 'cart_id', 'payment_method', 'payment_status', 'tax_amount', 'shipping_cost', 'total_amount', 'order_status', 'idempotency_key'], 'description': 'Manages the checkout process including payment processing, tax and shipping cost calculation, order creation, and duplicate order prevention.'}, {'name': 'Email Notification Service', 'endpoints': [{'name': '/notifications/order-confirmation', 'method': 'POST', 'inputs': ['user_email', 'order_id', 'order_details'], 'outputs': ['notification_status'], 'description': 'Send order confirmation email to customer'}, {'name': '/notifications/promotional', 'method': 'POST', 'inputs': ['user_email', 'promotion_details', 'user_preferences'], 'outputs': ['notification_status'], 'description': 'Send promotional emails to customers'}, {'name': '/notifications/shipping-update', 'method': 'POST', 'inputs': ['user_email', 'order_id', 'tracking_info'], 'outputs': ['notification_status'], 'description': 'Send shipping status update emails'}], 'user_stories': ['As a customer, I want to receive email confirmations for my orders so that I have a record of my purchase.', 'As a system, I want to send order confirmation emails after successful purchases.', 'As a customer, I want to receive promotional emails about discounts and offers.'], 'parameters': ['user_email', 'notification_type', 'notification_status', 'order_id', 'template_id'], 'description': 'Sends email notifications including order confirmations and promotional emails to customers.'}, {'name': 'Shipping Service', 'endpoints': [{'name': '/shipping/options', 'method': 'GET', 'inputs': ['destination_address', 'package_weight'], 'outputs': ['shipping_options', 'estimated_costs', 'delivery_times'], 'description': 'Get available shipping options and costs'}, {'name': '/shipping/track/{order_id}', 'method': 'GET', 'inputs': ['order_id'], 'outputs': ['tracking_number', 'shipping_status', 'estimated_delivery'], 'description': 'Track shipping status of an order'}, {'name': '/shipping/{order_id}/address', 'method': 'PUT', 'inputs': ['order_id', 'new_shipping_address'], 'outputs': ['update_status'], 'description': 'Update shipping address before order is shipped'}, {'name': '/shipping/{order_id}/initiate', 'method': 'POST', 'inputs': ['order_id', 'shipping_method', 'shipping_address'], 'outputs': ['tracking_number', 'shipping_status'], 'description': 'Initiate shipping for an order'}], 'user_stories': ['As a customer, I want to select shipping options so that I can choose how my products are delivered.', 'As a customer, I want to track the shipping status of my order so that I know when to expect delivery.', 'As a customer, I want to update my shipping address before my order is shipped.'], 'parameters': ['order_id', 'tracking_number', 'shipping_status', 'shipping_address', 'shipping_method', 'estimated_delivery'], 'description': 'Manages shipping options, tracking, and address updates for customer orders.'}, {'name': 'Currency Service', 'endpoints': [{'name': '/currency/convert', 'method': 'POST', 'inputs': ['amount', 'from_currency', 'to_currency'], 'outputs': ['converted_amount', 'exchange_rate'], 'description': 'Convert an amount from one currency to another'}, {'name': '/currency/rates', 'method': 'GET', 'inputs': ['base_currency'], 'outputs': ['exchange_rates', 'last_updated'], 'description': 'Get current exchange rates for all supported currencies'}, {'name': '/currency/supported', 'method': 'GET', 'inputs': [], 'outputs': ['supported_currencies'], 'description': 'Get list of supported currencies'}], 'user_stories': ['As a customer, I want to see prices in my local currency so that I understand the cost.', "As a system, I want to provide currency conversion based on user's selected currency."], 'parameters': ['currency_code', 'exchange_rate', 'base_currency', 'target_currency'], 'description': "Provides currency conversion and displays prices in the customer's local currency."}, {'name': 'Order History Service', 'endpoints': [{'name': '/orders/history/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'page', 'limit'], 'outputs': ['order_list', 'total_count'], 'description': 'Get paginated order history for a user'}, {'name': '/orders/{order_id}', 'method': 'GET', 'inputs': ['order_id'], 'outputs': ['order_details', 'order_items', 'shipping_info', 'payment_info'], 'description': 'Get detailed information about a specific order'}, {'name': '/orders/{order_id}/reorder', 'method': 'POST', 'inputs': ['order_id', 'user_id'], 'outputs': ['new_cart_id', 'reorder_status'], 'description': 'Create a new cart with items from a previous order'}], 'user_stories': ['As a customer, I want to review my past orders so that I can reorder items if desired.'], 'parameters': ['user_id', 'order_id', 'order_date', 'order_status', 'order_items', 'total_amount'], 'description': 'Manages customer order history, allowing customers to review past orders for reordering.'}, {'name': 'Advertisement Service', 'endpoints': [{'name': '/ads/targeted/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'page_context'], 'outputs': ['ad_list', 'ad_targeting_info'], 'description': 'Get targeted advertisements for a user based on browsing habits'}, {'name': '/ads/impression', 'method': 'POST', 'inputs': ['user_id', 'ad_id', 'timestamp'], 'outputs': ['impression_recorded'], 'description': 'Record an ad impression event'}, {'name': '/ads/click', 'method': 'POST', 'inputs': ['user_id', 'ad_id', 'timestamp'], 'outputs': ['click_recorded'], 'description': 'Record an ad click event'}], 'user_stories': ['As a system, I want to display targeted ads to users based on their browsing habits.'], 'parameters': ['user_id', 'ad_id', 'browsing_history', 'user_segments', 'ad_performance_metrics'], 'description': 'Displays targeted advertisements to users based on their browsing habits and behavior.'}, {'name': 'Analytics Service', 'endpoints': [{'name': '/analytics/sales-report', 'method': 'GET', 'inputs': ['start_date', 'end_date', 'granularity'], 'outputs': ['sales_data', 'revenue_metrics', 'product_performance'], 'description': 'Generate sales reports for a specific time period'}, {'name': '/analytics/dashboard', 'method': 'GET', 'inputs': ['date_range'], 'outputs': ['key_metrics', 'trends', 'visualizations'], 'description': 'Get dashboard data with key business metrics'}, {'name': '/analytics/products/top-selling', 'method': 'GET', 'inputs': ['start_date', 'end_date', 'limit'], 'outputs': ['top_products', 'sales_volumes'], 'description': 'Get top-selling products for a time period'}], 'user_stories': ['As an admin, I want to generate sales reports to analyze business performance.'], 'parameters': ['report_type', 'date_range', 'metrics', 'aggregated_sales_data'], 'description': 'Generates sales reports and provides business performance analytics for administrators.'}], 'patterns': [{'group_name': 'Service Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['Product Catalog Service', 'Shopping Cart Service', 'Recommendation Service', 'Checkout Service', 'Order History Service', 'Advertisement Service', 'Shipping Service'], 'explaination': 'I chose the database per service pattern because the context explicitly recommends it for ensuring loose coupling between microservices. Each service manages its own data domain (products, carts, recommendations, orders, etc.) and this pattern enables independent scalability, deployment, and data schema evolution for each service.'}, {'group_name': 'Order Checkout Orchestration', 'implementation_pattern': 'saga', 'involved_microservices': ['Shopping Cart Service', 'Checkout Service', 'Product Catalog Service', 'Email Notification Service', 'Shipping Service'], 'explaination': "I chose the saga pattern because the context specifies it's essential for managing distributed transactions across services during checkout. The order creation process requires coordinating multiple services: validating cart items, checking inventory (Product Catalog), processing payment (Checkout), sending confirmation emails (Email Notification), and initiating shipping (Shipping Service). The saga pattern handles the requirement to 'prevent duplicate orders in case of network issues' through compensating transactions and ensures consistency across these distributed operations."}, {'group_name': 'Event-Driven Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['Product Catalog Service', 'Checkout Service', 'Email Notification Service', 'Shipping Service', 'Recommendation Service', 'Order History Service', 'Analytics Service'], 'explaination': "I chose the domain event pattern because the context recommends it for asynchronous communication between services. Events like 'order placed', 'product updated', 'cart checkout', and 'inventory level changes' enable loose coupling between services. For example, when an order is completed in Checkout Service, it publishes an order placed event that triggers Email Notification Service, Shipping Service, Order History Service, and Analytics Service to perform their respective operations without tight coupling."}, {'group_name': 'Product Display Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Product Catalog Service', 'Recommendation Service', 'Currency Service'], 'explaination': 'I chose the API composition pattern because the context recommends it for read operations requiring data from multiple services. The product details page needs to combine product information from Product Catalog Service, recommendations from Recommendation Service, and price conversion from Currency Service. This pattern allows efficient aggregation of data from multiple sources for a unified customer experience.'}, {'group_name': 'Analytics Read Model', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Analytics Service', 'Order History Service', 'Recommendation Service'], 'explaination': 'I chose the CQRS pattern because the context explicitly recommends it for these services. Analytics Service needs to generate sales reports without impacting transactional systems, so it maintains separate read models. Order History Service creates denormalized views of past orders for efficient querying. Recommendation Service builds optimized read models from user behavior and purchase history events. This pattern separates the read and write concerns, enabling performance optimization for complex queries.'}, {'group_name': 'Order Consistency Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Checkout Service', 'Product Catalog Service', 'Shopping Cart Service'], 'explaination': 'I chose the aggregate pattern because the context recommends defining clear boundaries for data consistency. The Order Aggregate in Checkout Service includes order items, shipping info, and payment details as a single consistency boundary. Product Catalog Service groups product details, inventory levels, and pricing together. Shopping Cart Service treats cart and its items as one unit of consistency. This pattern ensures that related data changes together atomically within each service.'}], 'datastore': [{'datastore_name': 'Product Catalog Database', 'associated_microservices': ['Product Catalog Service'], 'description': 'Stores product information, descriptions, pricing, categories, and inventory levels. This database supports user stories for browsing products, viewing product details, and admin operations for managing the catalog. The database per service pattern ensures Product Catalog Service has autonomous control over its data schema and can scale independently. It publishes domain events when products or inventory change.'}, {'datastore_name': 'Shopping Cart Database', 'associated_microservices': ['Shopping Cart Service'], 'description': 'Stores active shopping cart data for customers, including cart items, quantities, and timestamps. This database supports user stories for adding and removing products from carts. The aggregate pattern groups cart and cart items as a single consistency unit, ensuring cart operations are atomic.'}, {'datastore_name': 'Recommendation Database', 'associated_microservices': ['Recommendation Service'], 'description': 'Stores user browsing history, purchase patterns, user preferences, and recommendation models. This database uses CQRS pattern with separate read models optimized for generating personalized recommendations. It subscribes to domain events from Product Catalog and Checkout services to update recommendation models, supporting user stories for personalized product discovery.'}, {'datastore_name': 'Checkout Database', 'associated_microservices': ['Checkout Service'], 'description': 'Stores checkout sessions, payment transactions, order details with idempotency keys for duplicate prevention. This database is central to the saga pattern orchestration for order processing. It maintains the order aggregate with order items, shipping, and payment information as a consistency boundary, supporting user stories for checkout, payment processing, and duplicate order prevention.'}, {'datastore_name': 'Order History Database', 'associated_microservices': ['Order History Service'], 'description': 'Stores historical order data in denormalized form optimized for read queries. Uses CQRS pattern to maintain read-optimized views of past orders. This database is populated through domain events from Checkout Service and supports user stories for reviewing past orders and reordering items.'}, {'datastore_name': 'Shipping Database', 'associated_microservices': ['Shipping Service'], 'description': 'Stores shipping information, tracking numbers, shipping addresses, delivery status, and shipping options. This database participates in the saga pattern for order fulfillment and supports user stories for selecting shipping options, tracking orders, and updating shipping addresses.'}, {'datastore_name': 'Email Notification Database', 'associated_microservices': ['Email Notification Service'], 'description': 'Stores notification history, email templates, user email preferences, and delivery status. This service subscribes to domain events (order placed, shipping updates) to trigger notifications, supporting user stories for order confirmations and promotional emails.'}, {'datastore_name': 'Advertisement Database', 'associated_microservices': ['Advertisement Service'], 'description': 'Stores user browsing behavior, ad campaigns, targeting rules, and ad performance metrics. This database supports the user story for displaying targeted ads based on browsing habits. It captures user interaction events to improve ad targeting.'}, {'datastore_name': 'Analytics Database', 'associated_microservices': ['Analytics Service'], 'description': 'Stores aggregated sales data, business metrics, and reporting data in a read-optimized format. Uses CQRS pattern with separate read models built from domain events published by various services (orders, products, payments). This database supports the admin user story for generating sales reports and analyzing business performance without impacting operational systems.'}, {'datastore_name': 'Currency Reference Database', 'associated_microservices': ['Currency Service'], 'description': "Stores current exchange rates, supported currencies, and conversion history. This database supports user stories for displaying prices in local currency and providing currency conversion. It's a lightweight reference data store that can be updated periodically with exchange rate feeds."}]}</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.0278</v>
       </c>
       <c r="F2" t="n">
-        <v>0.859</v>
+        <v>0.6037</v>
       </c>
     </row>
     <row r="3">
@@ -547,14 +547,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Product Catalog Service", "endpoints": [{"name": "/products", "method": "GET", "inputs": ["category", "search_query", "page", "page_size"], "outputs": ["product_list"], "description": "Retrieves a list of products, optionally filtered by category or search query, with pagination."}, {"name": "/products/{product_id}", "method": "GET", "inputs": ["product_id"], "outputs": ["product_details"], "description": "Retrieves detailed information for a specific product."}, {"name": "/products", "method": "POST", "inputs": ["product_data"], "outputs": ["created_product"], "description": "Creates a new product in the catalog."}, {"name": "/products/{product_id}", "method": "PUT", "inputs": ["product_id", "product_data"], "outputs": ["updated_product"], "description": "Updates details for an existing product."}, {"name": "/products/{product_id}", "method": "DELETE", "inputs": ["product_id"], "outputs": ["deletion_result"], "description": "Deletes a product from the catalog."}], "user_stories": ["1", "8", "9"], "parameters": ["product_id", "product_data", "category", "search_query", "page", "page_size"], "description": "Manages the product catalog, including browsing, updating product details, and managing catalog listings."}, {"name": "Shopping Assistant Service", "endpoints": [{"name": "/assistant/add-to-cart", "method": "POST", "inputs": ["user_id", "product_id", "quantity"], "outputs": ["cart_status"], "description": "Assists the customer in adding items to their cart."}, {"name": "/assistant/inquiry", "method": "POST", "inputs": ["user_id", "message"], "outputs": ["assistant_response"], "description": "Handles customer inquiries and provides assistance."}], "user_stories": ["2", "11"], "parameters": ["user_id", "product_id", "quantity", "message"], "description": "Assists customers in adding items to their cart and handles customer inquiries."}, {"name": "Recommendation Service", "endpoints": [{"name": "/recommendations", "method": "GET", "inputs": ["user_id", "context"], "outputs": ["recommended_products"], "description": "Provides personalized product recommendations for a user."}], "user_stories": ["3"], "parameters": ["user_id", "context"], "description": "Provides personalized product recommendations to customers."}, {"name": "Cart and Checkout Service", "endpoints": [{"name": "/cart", "method": "GET", "inputs": ["user_id"], "outputs": ["cart_contents"], "description": "Retrieves the current contents of the user's cart."}, {"name": "/cart", "method": "POST", "inputs": ["user_id", "product_id", "quantity"], "outputs": ["cart_status"], "description": "Adds an item to the user's cart."}, {"name": "/cart/{product_id}", "method": "DELETE", "inputs": ["user_id", "product_id"], "outputs": ["cart_status"], "description": "Removes an item from the user's cart."}, {"name": "/checkout", "method": "POST", "inputs": ["user_id", "payment_info", "shipping_option", "discount_code"], "outputs": ["order_confirmation"], "description": "Processes the checkout and places an order for the items in the cart."}], "user_stories": ["2", "4", "14"], "parameters": ["user_id", "product_id", "quantity", "payment_info", "shipping_option", "discount_code"], "description": "Handles cart management, checkout process, order placement, and applying discount codes."}, {"name": "Order Management Service", "endpoints": [{"name": "/orders", "method": "GET", "inputs": ["user_id"], "outputs": ["order_history"], "description": "Retrieves the order history for a user."}, {"name": "/orders/{order_id}", "method": "GET", "inputs": ["order_id"], "outputs": ["order_details"], "description": "Retrieves details and status for a specific order."}, {"name": "/orders", "method": "POST", "inputs": ["order_data"], "outputs": ["order_created"], "description": "Creates a new order record."}, {"name": "/orders/{order_id}/status", "method": "PUT", "inputs": ["order_id", "status"], "outputs": ["order_status_updated"], "description": "Updates the status of an order."}], "user_stories": ["4", "8"], "parameters": ["user_id", "order_id", "order_data", "status"], "description": "Manages order processing, order history, and order status tracking."}, {"name": "Email Notification Service", "endpoints": [{"name": "/notifications/order-confirmation", "method": "POST", "inputs": ["user_id", "order_id", "email"], "outputs": ["notification_status"], "description": "Sends order confirmation emails to customers."}, {"name": "/notifications/promotional", "method": "POST", "inputs": ["user_id", "email", "preferences"], "outputs": ["notification_status"], "description": "Sends personalized promotional emails based on user preferences."}], "user_stories": ["5", "10"], "parameters": ["user_id", "order_id", "email", "preferences"], "description": "Sends confirmation emails after orders and personalized promotional emails based on user preferences."}, {"name": "Shipping Service", "endpoints": [{"name": "/shipping/options", "method": "GET", "inputs": ["user_id", "cart_id", "address"], "outputs": ["shipping_options"], "description": "Retrieves available shipping options during checkout."}, {"name": "/shipping/{order_id}/track", "method": "GET", "inputs": ["order_id"], "outputs": ["shipment_status"], "description": "Tracks the shipment status for a given order."}, {"name": "/shipping/{order_id}", "method": "POST", "inputs": ["order_id", "shipping_option", "address"], "outputs": ["shipping_confirmation"], "description": "Initiates shipping for an order."}], "user_stories": ["6", "8"], "parameters": ["user_id", "cart_id", "address", "order_id", "shipping_option"], "description": "Manages shipping options during checkout and tracks shipment status."}, {"name": "Inventory Service", "endpoints": [{"name": "/inventory/{product_id}", "method": "GET", "inputs": ["product_id"], "outputs": ["inventory_level"], "description": "Retrieves the current inventory level for a product."}, {"name": "/inventory/{product_id}", "method": "PUT", "inputs": ["product_id", "quantity_change"], "outputs": ["inventory_update_status"], "description": "Updates the inventory level for a product."}], "user_stories": ["7"], "parameters": ["product_id", "quantity_change"], "description": "Manages inventory for each product in the catalog."}, {"name": "Review and Feedback Service", "endpoints": [{"name": "/reviews", "method": "POST", "inputs": ["user_id", "product_id", "rating", "review_text"], "outputs": ["review_status"], "description": "Allows a customer to submit a review for a product."}, {"name": "/reviews/{product_id}", "method": "GET", "inputs": ["product_id"], "outputs": ["reviews"], "description": "Retrieves all reviews for a specific product."}], "user_stories": ["12"], "parameters": ["user_id", "product_id", "rating", "review_text"], "description": "Allows customers to review products and provide feedback after purchase."}, {"name": "Reporting and Analytics Service", "endpoints": [{"name": "/reports/sales", "method": "GET", "inputs": ["date_range", "filters"], "outputs": ["sales_report"], "description": "Generates sales reports for admins."}, {"name": "/reports/order-trends", "method": "GET", "inputs": ["date_range", "filters"], "outputs": ["order_trends"], "description": "Monitors order trends for admins."}], "user_stories": ["13"], "parameters": ["date_range", "filters"], "description": "Monitors order trends and generates sales reports for admins."}], "patterns": [{"group_name": "Database per Service Pattern", "implementation_pattern": "database per service", "involved_microservices": ["Product Catalog Service", "Shopping Assistant Service", "Recommendation Service", "Cart and Checkout Service", "Order Management Service", "Email Notification Service", "Shipping Service", "Inventory Service", "Review and Feedback Service", "Reporting and Analytics Service"], "explaination": "Each microservice manages its own data and database, ensuring loose coupling and independent scaling. This is based on the context recommendation and the need for service autonomy."}, {"group_name": "Order Placement Saga", "implementation_pattern": "saga", "involved_microservices": ["Cart and Checkout Service", "Order Management Service", "Inventory Service", "Shipping Service"], "explaination": "Order placement and fulfillment is a distributed transaction involving multiple services (cart, order, inventory, shipping). Saga ensures eventual consistency across these services, as recommended in the context."}, {"group_name": "Order and Product Aggregates", "implementation_pattern": "aggregate", "involved_microservices": ["Product Catalog Service", "Shopping Assistant Service", "Recommendation Service", "Cart and Checkout Service", "Order Management Service", "Shipping Service", "Inventory Service", "Review and Feedback Service"], "explaination": "Each service encapsulates its business logic and data consistency boundaries as aggregates, as suggested in the context for encapsulating business logic."}, {"group_name": "Domain Events for Notifications and Analytics", "implementation_pattern": "domain event", "involved_microservices": ["Product Catalog Service", "Recommendation Service", "Cart and Checkout Service", "Order Management Service", "Email Notification Service", "Shipping Service", "Inventory Service", "Review and Feedback Service", "Reporting and Analytics Service"], "explaination": "Domain events are published when significant business actions occur (e.g., order placed, shipped), enabling other services (like notifications and analytics) to react. This is based on the context's recommendation for event-driven communication."}, {"group_name": "Reporting and Analytics CQRS", "implementation_pattern": "cqrs", "involved_microservices": ["Reporting and Analytics Service"], "explaination": "Reporting and Analytics requires efficient querying and separation of read/write models, as recommended in the context for CQRS."}, {"group_name": "Order History API Composition", "implementation_pattern": "api composition", "involved_microservices": ["Order Management Service", "Shipping Service", "Product Catalog Service", "Reporting and Analytics Service"], "explaination": "Order history and tracking require data from multiple services. API Composition aggregates data from these services for complex queries, as recommended in the context."}], "datastore": [{"datastore_name": "Product Catalog Database", "associated_microservices": ["Product Catalog Service"], "description": "Stores product details, categories, and catalog listings. Required for browsing and managing products (user stories 1, 8, 9)."}, {"datastore_name": "Shopping Assistant Database", "associated_microservices": ["Shopping Assistant Service"], "description": "Stores assistant session data, customer inquiries, and cart assistance logs. Needed for assisting with cart actions and inquiries (user stories 2, 11)."}, {"datastore_name": "Recommendation Database", "associated_microservices": ["Recommendation Service"], "description": "Stores user profiles, recommendation models, and interaction logs. Needed for providing personalized recommendations (user story 3)."}, {"datastore_name": "Cart and Checkout Database", "associated_microservices": ["Cart and Checkout Service"], "description": "Stores cart contents, checkout sessions, and discount codes. Needed for cart management, checkout, and discounts (user stories 2, 4, 14)."}, {"datastore_name": "Order Management Database", "associated_microservices": ["Order Management Service"], "description": "Stores order records, statuses, and order history. Needed for order processing and history (user stories 4, 8)."}, {"datastore_name": "Email Notification Database", "associated_microservices": ["Email Notification Service"], "description": "Stores email templates, notification logs, and user preferences. Needed for sending order confirmations and promotional emails (user stories 5, 10)."}, {"datastore_name": "Shipping Database", "associated_microservices": ["Shipping Service"], "description": "Stores shipping options, shipment records, and tracking statuses. Needed for managing shipping and tracking (user stories 6, 8)."}, {"datastore_name": "Inventory Database", "associated_microservices": ["Inventory Service"], "description": "Stores inventory levels for products. Needed for inventory management (user story 7)."}, {"datastore_name": "Review and Feedback Database", "associated_microservices": ["Review and Feedback Service"], "description": "Stores product reviews and customer feedback. Needed for review and feedback functionality (user story 12)."}, {"datastore_name": "Reporting and Analytics Database", "associated_microservices": ["Reporting and Analytics Service"], "description": "Stores aggregated sales data, order trends, and analytics materialized views. Needed for reporting and analytics (user story 13)."}]}</t>
+          <t>{'microservices': [{'name': 'Product Catalog Service', 'endpoints': [{'name': '/products', 'method': 'GET', 'inputs': ['category', 'filters', 'pagination'], 'outputs': ['product list'], 'description': 'Retrieves list of products from catalog with optional filtering'}, {'name': '/products/{productId}', 'method': 'GET', 'inputs': ['productId'], 'outputs': ['product details', 'inventory level'], 'description': 'Retrieves detailed information about a specific product'}, {'name': '/products', 'method': 'POST', 'inputs': ['product details', 'initial inventory'], 'outputs': ['product creation result'], 'description': 'Creates a new product in the catalog'}, {'name': '/products/{productId}', 'method': 'PUT', 'inputs': ['productId', 'updated product details'], 'outputs': ['update result'], 'description': 'Updates product details and catalog listings'}, {'name': '/products/{productId}/inventory', 'method': 'PUT', 'inputs': ['productId', 'inventory level'], 'outputs': ['inventory update result'], 'description': 'Updates inventory level for a product'}, {'name': '/products/{productId}/inventory', 'method': 'GET', 'inputs': ['productId'], 'outputs': ['inventory level'], 'description': 'Retrieves current inventory level for a product'}], 'user_stories': ['1', '7', '9'], 'parameters': ['productId', 'product details', 'inventory level', 'category', 'pricing'], 'description': 'Manages product information, catalog listings, inventory levels, and product details. Handles product browsing, inventory management, and catalog administration.'}, {'name': 'Recommendation Service', 'endpoints': [{'name': '/recommendations/{customerId}', 'method': 'GET', 'inputs': ['customerId', 'context'], 'outputs': ['recommended products'], 'description': 'Retrieves personalized product recommendations for a customer'}, {'name': '/recommendations/track', 'method': 'POST', 'inputs': ['customerId', 'browsing history', 'interaction data'], 'outputs': ['tracking result'], 'description': 'Tracks customer behavior for recommendation algorithm'}, {'name': '/recommendations/update', 'method': 'POST', 'inputs': ['customerId', 'purchase data', 'review data'], 'outputs': ['model update result'], 'description': 'Updates recommendation model based on purchases and reviews'}], 'user_stories': ['3'], 'parameters': ['customerId', 'browsing history', 'preferences', 'purchase patterns', 'recommendation model'], 'description': 'Provides personalized product recommendations to customers based on browsing history, preferences, and purchase patterns.'}, {'name': 'Shopping Assistant Service', 'endpoints': [{'name': '/assistant/cart/add', 'method': 'POST', 'inputs': ['customerId', 'productId', 'quantity', 'assistant context'], 'outputs': ['cart addition result'], 'description': 'Helps customer add items to cart with intelligent suggestions'}, {'name': '/assistant/inquiry', 'method': 'POST', 'inputs': ['customerId', 'inquiry message', 'conversation history'], 'outputs': ['assistant response'], 'description': 'Handles customer inquiries and provides assistance'}, {'name': '/assistant/conversation/{customerId}', 'method': 'GET', 'inputs': ['customerId'], 'outputs': ['conversation history'], 'description': 'Retrieves conversation history for a customer'}], 'user_stories': ['2', '11'], 'parameters': ['customerId', 'conversation history', 'inquiry data', 'assistant context'], 'description': 'Provides intelligent assistance for shopping activities including helping customers add items to cart and handling customer inquiries.'}, {'name': 'Cart &amp; Checkout Service', 'endpoints': [{'name': '/cart/{customerId}', 'method': 'GET', 'inputs': ['customerId'], 'outputs': ['cart items', 'cart total'], 'description': 'Retrieves current shopping cart for a customer'}, {'name': '/cart/{customerId}/items', 'method': 'POST', 'inputs': ['customerId', 'productId', 'quantity'], 'outputs': ['cart update result'], 'description': 'Adds items to shopping cart'}, {'name': '/cart/{customerId}/items/{itemId}', 'method': 'DELETE', 'inputs': ['customerId', 'itemId'], 'outputs': ['cart update result'], 'description': 'Removes items from shopping cart'}, {'name': '/cart/{customerId}/discount', 'method': 'POST', 'inputs': ['customerId', 'discount code'], 'outputs': ['discount application result', 'updated total'], 'description': 'Applies discount code to cart'}, {'name': '/checkout/{customerId}', 'method': 'POST', 'inputs': ['customerId', 'shipping option', 'payment details'], 'outputs': ['checkout result', 'orderId'], 'description': 'Processes checkout and initiates order placement'}, {'name': '/checkout/{customerId}/summary', 'method': 'GET', 'inputs': ['customerId'], 'outputs': ['cart summary', 'shipping options', 'total'], 'description': 'Retrieves checkout summary with all details'}], 'user_stories': ['4', '14'], 'parameters': ['customerId', 'cart items', 'discount code', 'cart total', 'cart session'], 'description': 'Manages shopping cart operations, checkout process, discount code application, and order placement.'}, {'name': 'Order Management Service', 'endpoints': [{'name': '/orders', 'method': 'POST', 'inputs': ['customerId', 'order items', 'shipping details', 'payment details'], 'outputs': ['orderId', 'order confirmation'], 'description': 'Creates a new order from checkout'}, {'name': '/orders/{orderId}', 'method': 'GET', 'inputs': ['orderId'], 'outputs': ['order details', 'order status'], 'description': 'Retrieves details of a specific order'}, {'name': '/orders/customer/{customerId}', 'method': 'GET', 'inputs': ['customerId', 'pagination'], 'outputs': ['order history'], 'description': 'Retrieves order history for a customer'}, {'name': '/orders/{orderId}/status', 'method': 'PUT', 'inputs': ['orderId', 'new status'], 'outputs': ['status update result'], 'description': 'Updates order status'}, {'name': '/orders/analytics', 'method': 'GET', 'inputs': ['date range', 'filters'], 'outputs': ['sales reports', 'order trends'], 'description': 'Retrieves order analytics and sales reports for admin'}, {'name': '/orders/trends', 'method': 'GET', 'inputs': ['time period', 'metrics'], 'outputs': ['trend analysis'], 'description': 'Provides trend analysis for order monitoring'}], 'user_stories': ['8', '13'], 'parameters': ['orderId', 'customerId', 'order items', 'order status', 'order analytics data'], 'description': 'Handles order processing, order history, order status tracking, and provides order analytics for reporting.'}, {'name': 'Shipping Service', 'endpoints': [{'name': '/shipping/options', 'method': 'GET', 'inputs': ['destination', 'package details'], 'outputs': ['shipping options', 'rates'], 'description': 'Retrieves available shipping options and rates'}, {'name': '/shipping/calculate', 'method': 'POST', 'inputs': ['origin', 'destination', 'weight', 'dimensions'], 'outputs': ['shipping cost'], 'description': 'Calculates shipping cost for order'}, {'name': '/shipping/track/{trackingId}', 'method': 'GET', 'inputs': ['trackingId'], 'outputs': ['tracking information', 'shipment status'], 'description': 'Retrieves tracking information for a shipment'}, {'name': '/shipping/shipment', 'method': 'POST', 'inputs': ['orderId', 'shipping option', 'address'], 'outputs': ['trackingId', 'shipment confirmation'], 'description': 'Creates a new shipment for an order'}], 'user_stories': ['6'], 'parameters': ['trackingId', 'shipping options', 'shipping rates', 'destination', 'shipment status'], 'description': 'Manages shipping options, shipping rates, delivery methods, and shipment tracking functionality.'}, {'name': 'Email Notification Service', 'endpoints': [{'name': '/notifications/order-confirmation', 'method': 'POST', 'inputs': ['customerId', 'orderId', 'order details'], 'outputs': ['email delivery result'], 'description': 'Sends order confirmation email to customer'}, {'name': '/notifications/promotional', 'method': 'POST', 'inputs': ['customerId', 'campaign details', 'user preferences'], 'outputs': ['email delivery result'], 'description': 'Sends personalized promotional emails'}, {'name': '/notifications/shipment', 'method': 'POST', 'inputs': ['customerId', 'orderId', 'tracking information'], 'outputs': ['email delivery result'], 'description': 'Sends shipment notification email'}, {'name': '/notifications/preferences/{customerId}', 'method': 'GET', 'inputs': ['customerId'], 'outputs': ['email preferences'], 'description': 'Retrieves email preferences for a customer'}, {'name': '/notifications/preferences/{customerId}', 'method': 'PUT', 'inputs': ['customerId', 'preferences'], 'outputs': ['update result'], 'description': 'Updates email preferences for a customer'}], 'user_stories': ['5', '10'], 'parameters': ['customerId', 'email templates', 'user preferences', 'delivery logs'], 'description': 'Sends transactional emails (order confirmations) and promotional emails based on user preferences and system triggers.'}, {'name': 'Review Service', 'endpoints': [{'name': '/reviews', 'method': 'POST', 'inputs': ['customerId', 'productId', 'orderId', 'rating', 'feedback'], 'outputs': ['review creation result'], 'description': 'Creates a new product review'}, {'name': '/reviews/product/{productId}', 'method': 'GET', 'inputs': ['productId', 'pagination'], 'outputs': ['product reviews', 'average rating'], 'description': 'Retrieves reviews for a specific product'}, {'name': '/reviews/customer/{customerId}', 'method': 'GET', 'inputs': ['customerId'], 'outputs': ['customer reviews'], 'description': 'Retrieves all reviews written by a customer'}, {'name': '/reviews/{reviewId}', 'method': 'PUT', 'inputs': ['reviewId', 'updated rating', 'updated feedback'], 'outputs': ['update result'], 'description': 'Updates an existing review'}, {'name': '/reviews/{reviewId}', 'method': 'DELETE', 'inputs': ['reviewId'], 'outputs': ['deletion result'], 'description': 'Deletes a review'}], 'user_stories': ['12'], 'parameters': ['reviewId', 'customerId', 'productId', 'rating', 'feedback'], 'description': 'Manages customer product reviews, ratings, and feedback collection after purchase.'}], 'patterns': [{'group_name': 'Service Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['Product Catalog Service', 'Recommendation Service', 'Shopping Assistant Service', 'Cart &amp; Checkout Service', 'Order Management Service', 'Shipping Service', 'Email Notification Service', 'Review Service'], 'explaination': 'I chose database per service pattern because the context explicitly recommends each microservice should have its own database to ensure loose coupling, independent deployment, and autonomous scalability. This is fundamental for microservices architecture and allows each service to evolve independently.'}, {'group_name': 'Order Placement Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Cart &amp; Checkout Service', 'Order Management Service', 'Shipping Service', 'Email Notification Service'], 'explaination': 'I chose saga pattern for the order placement flow because it maintains data consistency across multiple services without distributed transactions. The context identifies this as critical for handling checkout, order creation, shipping assignment, and confirmation emails (User Stories 4, 5, 6, 14). The saga orchestrates the entire order placement process including discount code application.'}, {'group_name': 'Inventory Management Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Product Catalog Service', 'Order Management Service', 'Recommendation Service'], 'explaination': 'I chose saga pattern for inventory management because it ensures consistency when updating inventory after purchases and triggers recommendation updates. The context specifies this saga handles User Stories 1, 7, 9 and coordinates inventory changes across multiple services.'}, {'group_name': 'Cross-Service Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['Order Management Service', 'Email Notification Service', 'Shipping Service', 'Review Service', 'Recommendation Service', 'Product Catalog Service', 'Cart &amp; Checkout Service'], 'explaination': 'I chose domain event pattern to enable event-driven communication between services. The context identifies several domain events: OrderPlaced triggers email notifications (User Story 5), OrderShipped updates multiple services, ProductReviewed updates reviews and recommendations (User Story 12), InventoryChanged triggers catalog and recommendation updates, and DiscountApplied updates cart and order services (User Story 14). This pattern supports loose coupling and asynchronous communication.'}, {'group_name': 'Order History Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Order Management Service', 'Shipping Service'], 'explaination': 'I chose API composition pattern for order history with tracking because User Story 8 requires composing data from Order Management Service and Shipping Service to provide customers with complete order history and tracking information in a single view.'}, {'group_name': 'Product Details Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Product Catalog Service', 'Review Service', 'Recommendation Service'], 'explaination': 'I chose API composition pattern for product details because User Stories 1 and 12 require composing data from multiple services to show complete product information including catalog details, customer reviews, and related recommendations in a unified view.'}, {'group_name': 'Checkout Summary Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Cart &amp; Checkout Service', 'Shipping Service', 'Product Catalog Service'], 'explaination': 'I chose API composition pattern for checkout summary because User Stories 4, 6, and 14 require composing data from cart, shipping options, and product details to present a complete checkout summary to customers.'}, {'group_name': 'Order Analytics and Reporting', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Order Management Service'], 'explaination': 'I chose CQRS pattern for sales reports and order analytics because User Story 13 requires complex reporting for admins. The context specifies that the command side handles order placement while the query side maintains a dedicated read model for admin dashboards and trend analysis, optimizing for different read and write requirements.'}, {'group_name': 'Personalized Recommendations Query', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Recommendation Service'], 'explaination': 'I chose CQRS pattern for personalized recommendations because User Story 3 requires fast retrieval of complex recommendation data. The context specifies that the command side tracks user behavior, purchases, and reviews while the query side maintains pre-computed recommendation models for fast retrieval, separating write-intensive tracking from read-intensive recommendation queries.'}, {'group_name': 'Order Transaction Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Order Management Service'], 'explaination': 'I chose aggregate pattern to define transaction boundaries within Order Management Service. The context identifies Order Aggregate as containing order items, status, and customer info, ensuring consistency within order transactions and defining clear boundaries for order-related operations.'}, {'group_name': 'Cart Transaction Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Cart &amp; Checkout Service'], 'explaination': 'I chose aggregate pattern for Cart &amp; Checkout Service because the context identifies Cart Aggregate as containing cart items, discount codes, and totals. This ensures transactional consistency for all cart operations including adding items and applying discounts (User Stories 4, 14).'}, {'group_name': 'Product Transaction Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Product Catalog Service'], 'explaination': 'I chose aggregate pattern for Product Catalog Service because the context identifies Product Aggregate as containing product details, inventory, and pricing. This defines clear transaction boundaries for product management operations including inventory updates (User Stories 1, 7, 9).'}, {'group_name': 'Review Transaction Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Review Service'], 'explaination': 'I chose aggregate pattern for Review Service because the context identifies Review Aggregate as containing rating, feedback, and product reference. This ensures consistency for review operations (User Story 12) and maintains integrity of review data.'}], 'datastore': [{'datastore_name': 'Product Catalog Database', 'associated_microservices': ['Product Catalog Service'], 'description': 'Stores product information, catalog listings, inventory levels, and pricing data. Influenced by User Stories 1 (browse catalog), 7 (manage inventory), and 9 (update product details). Database per service pattern requires this service to have its own database for autonomy. Aggregate pattern defines product as transaction boundary.'}, {'datastore_name': 'Recommendation Database', 'associated_microservices': ['Recommendation Service'], 'description': 'Stores recommendation algorithms, user preferences, browsing history, and purchase patterns. Influenced by User Story 3 (product recommendations). CQRS pattern requires separate command and query models with pre-computed recommendations for fast retrieval. Database per service pattern ensures independent scalability.'}, {'datastore_name': 'Shopping Assistant Database', 'associated_microservices': ['Shopping Assistant Service'], 'description': 'Stores conversation history, customer inquiries, and assistant context. Influenced by User Stories 2 (add items with assistant) and 11 (handle customer inquiries). Database per service pattern provides isolation for assistant service data.'}, {'datastore_name': 'Cart and Checkout Database', 'associated_microservices': ['Cart &amp; Checkout Service'], 'description': 'Stores cart sessions, cart items, discount codes, and checkout data. Influenced by User Stories 4 (checkout and place orders) and 14 (apply discount codes). Aggregate pattern defines cart as transaction boundary. Saga pattern requires persistent state for order placement coordination.'}, {'datastore_name': 'Order Management Database', 'associated_microservices': ['Order Management Service'], 'description': 'Stores orders, order history, order status, and order analytics. Influenced by User Stories 8 (order history and tracking) and 13 (sales reports and trends). CQRS pattern requires separate read model for analytics. Aggregate pattern defines order as transaction boundary. Saga pattern requires order state management.'}, {'datastore_name': 'Shipping Database', 'associated_microservices': ['Shipping Service'], 'description': 'Stores shipping rates, shipping options, delivery methods, and tracking information. Influenced by User Story 6 (choose shipping options) and User Story 8 (track shipments). Database per service pattern ensures shipping service autonomy. Required by both order placement and inventory sagas.'}, {'datastore_name': 'Email Notification Database', 'associated_microservices': ['Email Notification Service'], 'description': 'Stores email templates, delivery logs, and user email preferences. Influenced by User Stories 5 (order confirmation emails) and 10 (promotional emails based on preferences). Database per service pattern provides isolation for notification data. Domain events trigger email sends.'}, {'datastore_name': 'Review Database', 'associated_microservices': ['Review Service'], 'description': 'Stores customer reviews, ratings, and feedback. Influenced by User Story 12 (review products after purchase). Aggregate pattern defines review as transaction boundary. Domain event pattern publishes ProductReviewed events to update recommendations. Database per service pattern ensures review service independence.'}]}</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8001</v>
+        <v>0.4858</v>
       </c>
     </row>
     <row r="4">
@@ -594,14 +594,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Ride Request Service", "endpoints": [{"name": "/rides/request", "method": "POST", "inputs": ["user_id", "pickup_location", "dropoff_location", "scheduled_time"], "outputs": ["ride_id", "status"], "description": "Creates a new ride request, optionally scheduled for a future time."}, {"name": "/rides/{ride_id}/status", "method": "GET", "inputs": ["ride_id"], "outputs": ["status", "driver_id", "eta"], "description": "Retrieves the current status and assigned driver for a ride request."}, {"name": "/rides/{ride_id}/accept", "method": "POST", "inputs": ["ride_id", "driver_id"], "outputs": ["acceptance_status"], "description": "Allows a driver to accept a ride request."}, {"name": "/rides/{ride_id}/decline", "method": "POST", "inputs": ["ride_id", "driver_id"], "outputs": ["decline_status"], "description": "Allows a driver to decline a ride request."}, {"name": "/rides/upcoming", "method": "GET", "inputs": ["driver_id"], "outputs": ["rides"], "description": "Returns a list of upcoming ride requests for a driver."}], "user_stories": ["1", "3", "5", "11", "15", "16"], "parameters": ["ride_id", "user_id", "driver_id", "pickup_location", "dropoff_location", "scheduled_time", "status", "eta"], "description": "Handles creation, scheduling, and management of ride requests, including matching riders with drivers and balancing ride requests among available drivers."}, {"name": "Notification Service", "endpoints": [{"name": "/notifications/send", "method": "POST", "inputs": ["user_id", "notification_type", "message"], "outputs": ["notification_id", "delivery_status"], "description": "Sends a notification to a user."}, {"name": "/notifications/history", "method": "GET", "inputs": ["user_id"], "outputs": ["notifications"], "description": "Retrieves notification history for a user."}], "user_stories": ["2", "6", "14"], "parameters": ["notification_id", "user_id", "notification_type", "message", "delivery_status"], "description": "Sends notifications to users about ride status, arrivals, receipts, and other relevant updates."}, {"name": "Real-Time Location Service", "endpoints": [{"name": "/location/update", "method": "POST", "inputs": ["driver_id", "latitude", "longitude", "timestamp"], "outputs": ["update_status"], "description": "Updates the real-time location of a driver."}, {"name": "/location/track", "method": "GET", "inputs": ["ride_id"], "outputs": ["driver_location", "eta"], "description": "Retrieves the current location and ETA of the driver for a ride."}, {"name": "/location/navigation", "method": "GET", "inputs": ["start_location", "end_location"], "outputs": ["route", "estimated_time"], "description": "Integrates with external map services to provide navigation and routing."}], "user_stories": ["4", "8", "10"], "parameters": ["driver_id", "latitude", "longitude", "timestamp", "ride_id", "route", "estimated_time"], "description": "Tracks and updates real-time locations of drivers and rides, integrates with external map services for navigation and routing, and provides ETA information."}, {"name": "Payment Service", "endpoints": [{"name": "/payments/charge", "method": "POST", "inputs": ["ride_id", "user_id", "amount", "payment_method"], "outputs": ["payment_id", "payment_status"], "description": "Processes payment for a ride."}, {"name": "/payments/payout", "method": "POST", "inputs": ["ride_id", "driver_id", "amount"], "outputs": ["payout_id", "payout_status"], "description": "Processes payout to a driver for a completed ride."}, {"name": "/payments/receipt", "method": "GET", "inputs": ["ride_id"], "outputs": ["receipt"], "description": "Generates and retrieves the receipt for a ride."}], "user_stories": ["12", "13", "14"], "parameters": ["payment_id", "ride_id", "user_id", "driver_id", "amount", "payment_method", "payment_status", "payout_id", "payout_status"], "description": "Handles secure in-app payments for rides, processes driver payouts, and generates/send receipts to users."}, {"name": "Rating and Feedback Service", "endpoints": [{"name": "/feedback/submit", "method": "POST", "inputs": ["ride_id", "user_id", "driver_id", "rating", "comments"], "outputs": ["feedback_id", "submission_status"], "description": "Submits feedback and rating for a completed ride."}, {"name": "/feedback/driver/{driver_id}", "method": "GET", "inputs": ["driver_id"], "outputs": ["ratings", "feedback"], "description": "Retrieves ratings and feedback for a driver."}], "user_stories": ["7"], "parameters": ["feedback_id", "ride_id", "user_id", "driver_id", "rating", "comments", "submission_status"], "description": "Collects and manages rider feedback and driver ratings after trips."}, {"name": "Ride History Service", "endpoints": [{"name": "/history/rides", "method": "GET", "inputs": ["user_id"], "outputs": ["rides"], "description": "Retrieves the ride history for a user."}], "user_stories": ["15"], "parameters": ["user_id", "rides"], "description": "Stores and retrieves history of previous rides for riders."}, {"name": "Availability Service", "endpoints": [{"name": "/availability/set", "method": "POST", "inputs": ["driver_id", "available"], "outputs": ["status"], "description": "Sets the availability status for a driver."}, {"name": "/availability/get", "method": "GET", "inputs": ["driver_id"], "outputs": ["available"], "description": "Gets the current availability status for a driver."}], "user_stories": ["17"], "parameters": ["driver_id", "available", "status"], "description": "Allows drivers to set and update their availability status."}, {"name": "Lost and Found Service", "endpoints": [{"name": "/lostfound/report", "method": "POST", "inputs": ["ride_id", "user_id", "item_description", "contact_info"], "outputs": ["report_id", "report_status"], "description": "Submits a lost-and-found request for an item left in a vehicle."}, {"name": "/lostfound/status", "method": "GET", "inputs": ["report_id"], "outputs": ["report_status", "resolution"], "description": "Checks the status of a lost-and-found report."}], "user_stories": ["18"], "parameters": ["report_id", "ride_id", "user_id", "item_description", "contact_info", "report_status", "resolution"], "description": "Handles lost-and-found requests for items left in vehicles."}, {"name": "User and Driver Management Service", "endpoints": [{"name": "/users/register", "method": "POST", "inputs": ["user_type", "name", "email", "phone", "password", "vehicle_info"], "outputs": ["user_id", "registration_status"], "description": "Registers a new user or driver."}, {"name": "/users/{user_id}", "method": "GET", "inputs": ["user_id"], "outputs": ["user_profile"], "description": "Retrieves the profile of a user or driver."}, {"name": "/users/{user_id}/update", "method": "PUT", "inputs": ["user_id", "profile_updates"], "outputs": ["update_status"], "description": "Updates user or driver profile information."}, {"name": "/users/list", "method": "GET", "inputs": ["admin_id"], "outputs": ["users"], "description": "Allows admin to list all users and drivers."}], "user_stories": ["9", "19"], "parameters": ["user_id", "user_type", "name", "email", "phone", "password", "vehicle_info", "profile_updates", "registration_status", "update_status"], "description": "Manages user and driver accounts, including admin capabilities for monitoring and management."}, {"name": "Customer Support Service", "endpoints": [{"name": "/support/ticket", "method": "POST", "inputs": ["user_id", "issue_type", "description", "ride_id"], "outputs": ["ticket_id", "ticket_status"], "description": "Creates a new customer support ticket."}, {"name": "/support/ticket/{ticket_id}", "method": "GET", "inputs": ["ticket_id"], "outputs": ["ticket_status", "resolution"], "description": "Retrieves the status and resolution of a support ticket."}], "user_stories": ["20"], "parameters": ["ticket_id", "user_id", "issue_type", "description", "ride_id", "ticket_status", "resolution"], "description": "Provides customer support messaging for users experiencing issues."}, {"name": "Service Discovery Service", "endpoints": [{"name": "/services/register", "method": "POST", "inputs": ["service_name", "service_url"], "outputs": ["registration_status"], "description": "Registers a new microservice with the service discovery registry."}, {"name": "/services/list", "method": "GET", "inputs": [], "outputs": ["services"], "description": "Lists all registered microservices."}], "user_stories": [], "parameters": ["service_name", "service_url", "registration_status"], "description": "Enables robust communication and discovery between microservices in the platform."}], "patterns": [{"group_name": "Ride Request Transaction Coordination", "implementation_pattern": "saga", "involved_microservices": ["Ride Request Service", "Payment Service"], "explaination": "Saga is used to coordinate distributed transactions such as ride creation, driver assignment, and payment processing, ensuring consistency across services. This is based on user stories 1, 3, 12, 13, 14, 15, and 16, which require multi-step workflows."}, {"group_name": "Ride Request Domain Logic", "implementation_pattern": "aggregate", "involved_microservices": ["Ride Request Service"], "explaination": "Aggregate pattern is used to encapsulate ride request logic and maintain consistency within the Ride Request Service, as required by user stories 1, 3, 5, 11, 15, and 16."}, {"group_name": "Payment Domain Logic", "implementation_pattern": "aggregate", "involved_microservices": ["Payment Service"], "explaination": "Aggregate pattern ensures payment transactions are consistent within the Payment Service, as required by user stories 12, 13, and 14."}, {"group_name": "Notification Event Handling", "implementation_pattern": "domain event", "involved_microservices": ["Notification Service"], "explaination": "Domain Event pattern is used so Notification Service can listen for events (e.g., ride status changes, payment completion) and trigger notifications, as required by user stories 2, 6, and 14."}, {"group_name": "Real-Time Location Event Publishing", "implementation_pattern": "domain event", "involved_microservices": ["Real-Time Location Service"], "explaination": "Domain Event pattern allows Real-Time Location Service to publish location updates to other services, supporting user stories 4, 8, and 10."}, {"group_name": "Rating Feedback Event Handling", "implementation_pattern": "domain event", "involved_microservices": ["Rating and Feedback Service"], "explaination": "Domain Event pattern is used so the service can receive trip completion events and prompt for feedback, as required by user story 7."}, {"group_name": "Ride History Data Aggregation", "implementation_pattern": "api composition", "involved_microservices": ["Ride History Service", "Ride Request Service", "Payment Service", "Rating and Feedback Service"], "explaination": "API Composition is used for Ride History Service to aggregate data from Ride Request, Payment, and Rating services to present a complete ride history, as required by user story 15."}, {"group_name": "Ride History Query Optimization", "implementation_pattern": "cqrs", "involved_microservices": ["Ride History Service"], "explaination": "CQRS is used to separate read and write workloads for Ride History Service, optimizing for query performance as required by user story 15."}, {"group_name": "Availability Event Publishing", "implementation_pattern": "domain event", "involved_microservices": ["Availability Service"], "explaination": "Domain Event pattern allows Availability Service to publish driver availability changes to other services, supporting user story 17."}, {"group_name": "Lost and Found Event Handling", "implementation_pattern": "domain event", "involved_microservices": ["Lost and Found Service"], "explaination": "Domain Event pattern allows Lost and Found Service to subscribe to ride completion events and trigger lost-and-found workflows, as required by user story 18."}, {"group_name": "User and Driver Aggregate", "implementation_pattern": "aggregate", "involved_microservices": ["User and Driver Management Service"], "explaination": "Aggregate pattern is used to manage user and driver data and related business rules, as required by user stories 9 and 19."}, {"group_name": "Customer Support Event Handling", "implementation_pattern": "domain event", "involved_microservices": ["Customer Support Service"], "explaination": "Domain Event pattern allows Customer Support Service to listen for events (e.g., ride issues, lost-and-found requests) and create or update support cases, as required by user story 20."}, {"group_name": "Service Discovery Data Isolation", "implementation_pattern": "database per service", "involved_microservices": ["Service Discovery Service"], "explaination": "Database per service is used for Service Discovery Service to maintain its own registry, as it does not require a data style pattern."}], "datastore": [{"datastore_name": "RideRequestDB", "associated_microservices": ["Ride Request Service"], "description": "Stores all ride requests, their statuses, assignments, and scheduling information. Required for user stories 1, 3, 5, 11, 15, and 16."}, {"datastore_name": "NotificationDB", "associated_microservices": ["Notification Service"], "description": "Stores notification logs and templates for user notifications. Required for user stories 2, 6, and 14."}, {"datastore_name": "LocationDB", "associated_microservices": ["Real-Time Location Service"], "description": "Stores real-time location data for drivers and rides. Required for user stories 4, 8, and 10."}, {"datastore_name": "PaymentDB", "associated_microservices": ["Payment Service"], "description": "Stores payment transactions, payout records, and receipts. Required for user stories 12, 13, and 14."}, {"datastore_name": "FeedbackDB", "associated_microservices": ["Rating and Feedback Service"], "description": "Stores feedback and ratings for drivers and rides. Required for user story 7."}, {"datastore_name": "RideHistoryDB", "associated_microservices": ["Ride History Service"], "description": "Stores ride history records for users, aggregating data from other services. Required for user story 15."}, {"datastore_name": "AvailabilityDB", "associated_microservices": ["Availability Service"], "description": "Stores driver availability status. Required for user story 17."}, {"datastore_name": "LostFoundDB", "associated_microservices": ["Lost and Found Service"], "description": "Stores lost-and-found reports and their statuses. Required for user story 18."}, {"datastore_name": "UserDriverDB", "associated_microservices": ["User and Driver Management Service"], "description": "Stores user and driver profiles, credentials, and admin data. Required for user stories 9 and 19."}, {"datastore_name": "SupportDB", "associated_microservices": ["Customer Support Service"], "description": "Stores support tickets and communication logs. Required for user story 20."}, {"datastore_name": "ServiceRegistryDB", "associated_microservices": ["Service Discovery Service"], "description": "Stores registry of available microservices for service discovery. Required for robust communication as per specifications."}]}</t>
+          <t>{'microservices': [{'name': 'ride-management-service', 'endpoints': [{'name': '/rides/request', 'method': 'POST', 'inputs': ['rider_id', 'pickup_location', 'dropoff_location', 'ride_type'], 'outputs': ['ride_id', 'request_status'], 'description': 'Creates a new ride request from a rider'}, {'name': '/rides/{ride_id}/accept', 'method': 'POST', 'inputs': ['ride_id', 'driver_id'], 'outputs': ['acceptance_status', 'ride_details'], 'description': 'Allows a driver to accept a ride request'}, {'name': '/rides/{ride_id}/decline', 'method': 'POST', 'inputs': ['ride_id', 'driver_id'], 'outputs': ['decline_status'], 'description': 'Allows a driver to decline a ride request'}, {'name': '/rides/{ride_id}/status', 'method': 'GET', 'inputs': ['ride_id'], 'outputs': ['ride_status', 'driver_info', 'eta'], 'description': 'Retrieves current status of a ride'}, {'name': '/rides/{ride_id}/complete', 'method': 'POST', 'inputs': ['ride_id', 'end_location', 'end_time'], 'outputs': ['completion_status', 'trip_summary'], 'description': 'Marks a ride as completed'}, {'name': '/rides/history', 'method': 'GET', 'inputs': ['user_id', 'user_type', 'start_date', 'end_date'], 'outputs': ['ride_history_list'], 'description': 'Retrieves ride history for a user or driver'}, {'name': '/rides/schedule', 'method': 'POST', 'inputs': ['rider_id', 'pickup_location', 'dropoff_location', 'scheduled_time'], 'outputs': ['scheduled_ride_id', 'confirmation'], 'description': 'Schedules a ride for a future time'}, {'name': '/rides/driver/pending', 'method': 'GET', 'inputs': ['driver_id'], 'outputs': ['pending_rides_list'], 'description': 'Retrieves upcoming ride requests for a driver'}, {'name': '/rides/active', 'method': 'GET', 'inputs': ['admin_id'], 'outputs': ['active_rides_list'], 'description': 'Retrieves all rides in progress for admin monitoring'}], 'user_stories': ['1', '3', '5', '11', '15', '16'], 'parameters': ['ride_id', 'rider_id', 'driver_id', 'pickup_location', 'dropoff_location', 'ride_status', 'scheduled_time', 'start_time', 'end_time', 'fare_amount'], 'description': 'Manages the complete ride lifecycle including ride requests, scheduling, matching riders with drivers, and ride history. Handles ride state transitions and assignment logic.'}, {'name': 'notification-service', 'endpoints': [{'name': '/notifications/send', 'method': 'POST', 'inputs': ['user_id', 'notification_type', 'message', 'channel'], 'outputs': ['delivery_status', 'notification_id'], 'description': 'Sends notifications to users via specified channel'}, {'name': '/notifications/{notification_id}/status', 'method': 'GET', 'inputs': ['notification_id'], 'outputs': ['delivery_status', 'timestamp'], 'description': 'Retrieves delivery status of a notification'}, {'name': '/notifications/receipt', 'method': 'POST', 'inputs': ['ride_id', 'user_id', 'receipt_data'], 'outputs': ['receipt_sent_status'], 'description': 'Sends receipt to user after ride completion'}], 'user_stories': ['2', '6', '14'], 'parameters': ['notification_id', 'user_id', 'notification_type', 'message', 'channel', 'delivery_status', 'timestamp'], 'description': 'Handles all notification delivery across multiple channels (push, email, SMS) for ride status updates, receipts, and system alerts to riders and drivers.'}, {'name': 'location-tracking-service', 'endpoints': [{'name': '/location/update', 'method': 'POST', 'inputs': ['driver_id', 'latitude', 'longitude', 'timestamp'], 'outputs': ['update_status'], 'description': "Updates driver's current location"}, {'name': '/location/track/{ride_id}', 'method': 'GET', 'inputs': ['ride_id'], 'outputs': ['driver_location', 'eta', 'route'], 'description': 'Retrieves real-time location and ETA for active ride'}, {'name': '/location/driver/{driver_id}', 'method': 'GET', 'inputs': ['driver_id'], 'outputs': ['current_location', 'last_updated'], 'description': 'Retrieves current location of a specific driver'}, {'name': '/location/route', 'method': 'POST', 'inputs': ['origin', 'destination'], 'outputs': ['route_details', 'estimated_duration', 'distance'], 'description': 'Calculates route and ETA using external map services'}], 'user_stories': ['4', '8', '10'], 'parameters': ['driver_id', 'ride_id', 'latitude', 'longitude', 'timestamp', 'eta', 'route', 'map_session_id'], 'description': 'Manages real-time location updates from drivers and provides tracking functionality for riders. Integrates with external map services for navigation, routing, and ETA calculations.'}, {'name': 'payment-service', 'endpoints': [{'name': '/payments/process', 'method': 'POST', 'inputs': ['ride_id', 'rider_id', 'amount', 'payment_method'], 'outputs': ['transaction_id', 'payment_status'], 'description': 'Processes payment for a completed ride'}, {'name': '/payments/authorize', 'method': 'POST', 'inputs': ['rider_id', 'amount', 'payment_method'], 'outputs': ['authorization_id', 'authorization_status'], 'description': 'Pre-authorizes payment before ride starts'}, {'name': '/payments/payout', 'method': 'POST', 'inputs': ['driver_id', 'ride_id', 'amount'], 'outputs': ['payout_id', 'payout_status'], 'description': 'Processes payout to driver for completed ride'}, {'name': '/payments/receipt/{transaction_id}', 'method': 'GET', 'inputs': ['transaction_id'], 'outputs': ['receipt_details'], 'description': 'Generates and retrieves receipt for a transaction'}, {'name': '/payments/history', 'method': 'GET', 'inputs': ['user_id', 'user_type'], 'outputs': ['payment_history_list'], 'description': 'Retrieves payment history for rider or driver'}], 'user_stories': ['12', '13'], 'parameters': ['transaction_id', 'authorization_id', 'payout_id', 'ride_id', 'rider_id', 'driver_id', 'amount', 'payment_method', 'payment_status', 'receipt_data'], 'description': 'Handles all payment processing including ride payments, driver payouts, secure transaction processing, and receipt generation.'}, {'name': 'rating-feedback-service', 'endpoints': [{'name': '/ratings/submit', 'method': 'POST', 'inputs': ['ride_id', 'rater_id', 'ratee_id', 'rating_score', 'review_text'], 'outputs': ['rating_id', 'submission_status'], 'description': 'Submits rating and feedback after a ride'}, {'name': '/ratings/user/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['average_rating', 'total_ratings', 'recent_reviews'], 'description': 'Retrieves aggregated ratings for a user or driver'}, {'name': '/ratings/ride/{ride_id}', 'method': 'GET', 'inputs': ['ride_id'], 'outputs': ['rating_details'], 'description': 'Retrieves ratings associated with a specific ride'}], 'user_stories': ['7'], 'parameters': ['rating_id', 'ride_id', 'rater_id', 'ratee_id', 'rating_score', 'review_text', 'average_rating', 'total_ratings'], 'description': 'Manages post-trip ratings, reviews, and feedback collection for drivers and riders. Stores and aggregates rating data.'}, {'name': 'user-management-service', 'endpoints': [{'name': '/users/register', 'method': 'POST', 'inputs': ['email', 'password', 'name', 'phone', 'user_type'], 'outputs': ['user_id', 'registration_status'], 'description': 'Registers a new user or driver'}, {'name': '/users/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['auth_token', 'user_id', 'login_status'], 'description': 'Authenticates user and generates access token'}, {'name': '/users/{user_id}/profile', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['profile_details'], 'description': 'Retrieves user or driver profile information'}, {'name': '/users/{user_id}/profile', 'method': 'PUT', 'inputs': ['user_id', 'profile_data'], 'outputs': ['update_status'], 'description': 'Updates user or driver profile information'}, {'name': '/drivers/{driver_id}/availability', 'method': 'PUT', 'inputs': ['driver_id', 'availability_status'], 'outputs': ['status_update_confirmation'], 'description': 'Updates driver availability status'}, {'name': '/drivers/{driver_id}/availability', 'method': 'GET', 'inputs': ['driver_id'], 'outputs': ['availability_status'], 'description': 'Retrieves driver availability status'}, {'name': '/admin/users', 'method': 'GET', 'inputs': ['admin_id', 'filters'], 'outputs': ['users_list'], 'description': 'Retrieves list of all users for admin management'}, {'name': '/admin/users/{user_id}', 'method': 'PUT', 'inputs': ['admin_id', 'user_id', 'action'], 'outputs': ['action_status'], 'description': 'Allows admin to manage user accounts (activate, deactivate, etc.)'}], 'user_stories': ['17', '19'], 'parameters': ['user_id', 'driver_id', 'email', 'password', 'name', 'phone', 'user_type', 'auth_token', 'availability_status', 'profile_data'], 'description': 'Manages user and driver profiles, authentication, authorization, driver availability status, and platform user administration.'}, {'name': 'support-service', 'endpoints': [{'name': '/support/tickets', 'method': 'POST', 'inputs': ['user_id', 'ride_id', 'issue_type', 'description'], 'outputs': ['ticket_id', 'creation_status'], 'description': 'Creates a new support ticket'}, {'name': '/support/tickets/{ticket_id}', 'method': 'GET', 'inputs': ['ticket_id'], 'outputs': ['ticket_details', 'status', 'messages'], 'description': 'Retrieves support ticket details and history'}, {'name': '/support/messages', 'method': 'POST', 'inputs': ['ticket_id', 'sender_id', 'message_text'], 'outputs': ['message_id', 'send_status'], 'description': 'Sends a message within a support ticket'}, {'name': '/support/lost-found', 'method': 'POST', 'inputs': ['user_id', 'ride_id', 'item_description'], 'outputs': ['request_id', 'submission_status'], 'description': 'Creates a lost-and-found request for items left in vehicles'}, {'name': '/support/lost-found/{request_id}', 'method': 'GET', 'inputs': ['request_id'], 'outputs': ['request_details', 'status'], 'description': 'Retrieves status of a lost-and-found request'}, {'name': '/admin/support/rides/monitor', 'method': 'GET', 'inputs': ['admin_id'], 'outputs': ['active_rides_with_details'], 'description': 'Provides admin view of all rides for safety monitoring'}], 'user_stories': ['9', '18', '20'], 'parameters': ['ticket_id', 'request_id', 'message_id', 'user_id', 'ride_id', 'issue_type', 'description', 'status', 'item_description'], 'description': 'Provides customer support functionality including messaging, lost-and-found requests, ride monitoring for safety, and admin support tools.'}], 'patterns': [{'group_name': 'Independent Service Data Management', 'implementation_pattern': 'database per service', 'involved_microservices': ['ride-management-service', 'notification-service', 'location-tracking-service', 'payment-service', 'rating-feedback-service', 'user-management-service', 'support-service'], 'explaination': 'I chose Database per Service pattern because the context explicitly recommends that each microservice should have its own database to ensure loose coupling and independent scalability. This allows each service to evolve independently and choose the most appropriate database type for its needs (e.g., MongoDB for location data, relational for payments).'}, {'group_name': 'Ride Booking and Completion Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['ride-management-service', 'payment-service', 'notification-service', 'location-tracking-service'], 'explaination': 'I chose the Saga pattern because the context identifies it as critical for distributed transactions. The ride booking flow (user stories 1, 3, 11, 12) requires orchestrating ride request → driver matching → payment authorization → ride confirmation across multiple services. Similarly, ride completion (user stories 7, 12, 13, 14) needs to coordinate ride completion → payment processing → receipt generation → rating collection. This ensures data consistency across services without tight coupling.'}, {'group_name': 'Cross-Service Data Aggregation', 'implementation_pattern': 'api composition', 'involved_microservices': ['ride-management-service', 'payment-service', 'rating-feedback-service', 'support-service', 'user-management-service', 'location-tracking-service'], 'explaination': 'I chose API Composition pattern because the context recommends it for queries that need data from multiple services. User story 15 (ride history) requires combining data from ride-management-service, payment-service, and rating-feedback-service. Driver profile views need to aggregate user-management-service, rating-feedback-service, and ride-management-service data. Admin dashboard (user story 9) requires joining data from ride-management-service, location-tracking-service, and user-management-service.'}, {'group_name': 'Real-Time Location and Monitoring', 'implementation_pattern': 'cqrs', 'involved_microservices': ['location-tracking-service', 'ride-management-service'], 'explaination': 'I chose CQRS pattern because the context recommends it for complex queries and real-time tracking. User stories 4 and 10 require real-time driver tracking with read-optimized views of driver locations. The admin monitoring view (user story 9) needs a real-time view of active rides with location and status. CQRS allows the location-tracking-service to maintain separate write models for location updates and read models optimized for real-time queries, ensuring performance under high update frequency.'}, {'group_name': 'Inter-Service Event Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['ride-management-service', 'payment-service', 'notification-service', 'location-tracking-service', 'rating-feedback-service', 'user-management-service'], 'explaination': 'I chose Domain Event pattern because the context identifies it as essential for asynchronous communication between services. Events like RideRequested trigger driver matching and notifications; RideAccepted/RideDeclined update ride status and notify riders; LocationUpdated is consumed for ETA updates; RideCompleted triggers payment processing, receipt generation, and rating requests; PaymentProcessed triggers notifications; and RatingSubmitted updates driver/rider profiles. This decouples services while maintaining event-driven coordination across the system.'}, {'group_name': 'Service Data Boundaries', 'implementation_pattern': 'aggregate', 'involved_microservices': ['ride-management-service', 'payment-service', 'user-management-service', 'location-tracking-service'], 'explaination': 'I chose the Aggregate pattern because the context recommends defining clear aggregates within services to establish transaction boundaries. The Ride Aggregate in ride-management-service encapsulates ride details, status, rider, driver, and timestamps as a consistency boundary. Payment Aggregate ensures transaction integrity. User/Driver Aggregate manages profile and authentication atomically. Location Session Aggregate handles driver location streams during active rides. This ensures that each aggregate maintains its own consistency rules and can be modified atomically.'}], 'datastore': [{'datastore_name': 'ride-management-db', 'associated_microservices': ['ride-management-service'], 'description': 'Stores ride requests, ride status, driver-rider matching data, scheduled rides, and ride history. Supports user stories 1, 3, 5, 11, 15, and 16. Uses relational database for complex queries and transactional integrity of ride lifecycle management.'}, {'datastore_name': 'notification-db', 'associated_microservices': ['notification-service'], 'description': 'Stores notification logs, delivery status, channels used, and receipt data. Supports user stories 2, 6, and 14. Tracks notification history for audit and retry mechanisms.'}, {'datastore_name': 'location-tracking-db', 'associated_microservices': ['location-tracking-service'], 'description': 'Stores real-time driver location coordinates, tracking sessions, route data, and ETA calculations. Supports user stories 4, 8, and 10. Uses time-series or NoSQL database optimized for high-frequency location updates and geospatial queries. Includes read-optimized views for CQRS pattern.'}, {'datastore_name': 'payment-db', 'associated_microservices': ['payment-service'], 'description': 'Stores payment transactions, authorization records, payout data, and receipt information. Supports user stories 12 and 13. Uses relational database with strong ACID properties for financial data integrity and audit trails.'}, {'datastore_name': 'rating-feedback-db', 'associated_microservices': ['rating-feedback-service'], 'description': 'Stores ratings, reviews, feedback text, and aggregated rating scores for drivers and riders. Supports user story 7. Maintains historical rating data for reputation management.'}, {'datastore_name': 'user-management-db', 'associated_microservices': ['user-management-service'], 'description': 'Stores user and driver profiles, authentication credentials, authorization tokens, and availability status. Supports user stories 17 and 19. Uses relational database for secure authentication and profile management with proper indexing for user lookups.'}, {'datastore_name': 'support-db', 'associated_microservices': ['support-service'], 'description': 'Stores support tickets, messaging history, lost-and-found requests, and admin monitoring logs. Supports user stories 9, 18, and 20. Maintains complete audit trail of customer support interactions and issue resolution.'}]}</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.0545</v>
+        <v>0.2342</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8329</v>
+        <v>0.4985</v>
       </c>
     </row>
     <row r="5">
@@ -637,14 +637,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Train Schedule Service", "endpoints": [{"name": "/trains/search", "method": "GET", "inputs": ["origin", "destination", "date", "time"], "outputs": ["list of available trains"], "description": "Searches for available trains based on origin, destination, date, and time."}, {"name": "/trains/{trainId}/status", "method": "GET", "inputs": ["trainId"], "outputs": ["train status"], "description": "Retrieves the current status of a specific train."}, {"name": "/trains/{trainId}/availability", "method": "GET", "inputs": ["trainId", "date"], "outputs": ["seat availability"], "description": "Checks seat availability for a specific train on a given date."}, {"name": "/trains/{trainId}/status", "method": "PUT", "inputs": ["trainId", "status"], "outputs": ["update result"], "description": "Updates the status of a train (e.g., delayed, on time)."}], "user_stories": ["1", "7", "11"], "parameters": ["trainId", "origin", "destination", "date", "time", "status"], "description": "Handles searching and retrieving available train schedules, including train availability and status updates."}, {"name": "Booking Service", "endpoints": [{"name": "/bookings", "method": "POST", "inputs": ["userId", "trainId", "date", "seatClass", "seatPreference", "contactId", "paymentInfo"], "outputs": ["booking confirmation", "bookingId"], "description": "Creates a new booking for a user, including seat selection and payment initiation."}, {"name": "/bookings/{bookingId}/cancel", "method": "POST", "inputs": ["bookingId", "userId"], "outputs": ["cancellation result"], "description": "Cancels an existing booking."}, {"name": "/bookings/{bookingId}", "method": "GET", "inputs": ["bookingId", "userId"], "outputs": ["booking details"], "description": "Retrieves details of a specific booking."}, {"name": "/bookings/{bookingId}/seat", "method": "PUT", "inputs": ["bookingId", "seatPreference", "seatClass"], "outputs": ["seat selection result"], "description": "Updates seat selection for an existing booking."}, {"name": "/bookings/user/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["list of bookings"], "description": "Retrieves all bookings for a specific user."}], "user_stories": ["2", "6", "8", "9", "13", "14"], "parameters": ["bookingId", "userId", "trainId", "date", "seatClass", "seatPreference", "contactId", "paymentInfo"], "description": "Manages ticket booking, cancellation, seat selection, and booking confirmation processes."}, {"name": "Notification Service", "endpoints": [{"name": "/notifications/send", "method": "POST", "inputs": ["userId", "type", "message", "bookingId"], "outputs": ["notification result"], "description": "Sends a notification to a user about booking, schedule changes, or delays."}, {"name": "/notifications/logs/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["notification logs"], "description": "Retrieves notification logs for a user."}], "user_stories": ["3", "7", "9"], "parameters": ["userId", "type", "message", "bookingId"], "description": "Sends notifications to users about bookings, schedule changes, delays, and confirmations via email or messages."}, {"name": "User Profile Service", "endpoints": [{"name": "/users/{userId}/profile", "method": "GET", "inputs": ["userId"], "outputs": ["user profile"], "description": "Retrieves the profile of a user."}, {"name": "/users/{userId}/profile", "method": "PUT", "inputs": ["userId", "profileData"], "outputs": ["update result"], "description": "Updates the profile and personal data of a user."}, {"name": "/users/{userId}/contacts", "method": "GET", "inputs": ["userId"], "outputs": ["frequent contacts"], "description": "Retrieves frequent contacts for a user."}, {"name": "/users/{userId}/contacts", "method": "POST", "inputs": ["userId", "contactData"], "outputs": ["add contact result"], "description": "Adds a frequent contact for a user."}], "user_stories": ["4", "10", "15"], "parameters": ["userId", "profileData", "contactData"], "description": "Manages user profiles, including personal data updates and frequent contacts."}, {"name": "Account &amp; Role Management Service", "endpoints": [{"name": "/accounts/register", "method": "POST", "inputs": ["email", "password", "role"], "outputs": ["registration result"], "description": "Registers a new user account."}, {"name": "/accounts/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result", "token"], "description": "Authenticates a user and returns an access token."}, {"name": "/accounts/{userId}/roles", "method": "PUT", "inputs": ["userId", "role"], "outputs": ["role update result"], "description": "Updates the role of a user."}], "user_stories": ["5"], "parameters": ["userId", "email", "password", "role"], "description": "Handles user account creation, authentication, and role-based access control for secure system usage."}, {"name": "Admin Management Service", "endpoints": [{"name": "/admin/bookings", "method": "GET", "inputs": ["filterParams"], "outputs": ["all bookings"], "description": "Retrieves all ticket bookings for administrative purposes."}, {"name": "/admin/reports", "method": "GET", "inputs": ["reportType", "dateRange"], "outputs": ["sales and usage report"], "description": "Generates sales and usage reports."}, {"name": "/admin/bookings/{bookingId}/manage", "method": "PUT", "inputs": ["bookingId", "action"], "outputs": ["management result"], "description": "Allows admin to manage a specific booking (e.g., update, cancel)."}], "user_stories": ["8", "13"], "parameters": ["filterParams", "reportType", "dateRange", "bookingId", "action"], "description": "Allows administrators to view and manage all ticket bookings and generate sales and usage reports."}, {"name": "Pricing &amp; Payment Service", "endpoints": [{"name": "/pricing", "method": "GET", "inputs": ["trainId", "date", "seatClass"], "outputs": ["ticket price"], "description": "Retrieves ticket price information for a specific train, date, and seat class."}, {"name": "/payment", "method": "POST", "inputs": ["bookingId", "userId", "paymentMethod", "amount", "paymentDetails"], "outputs": ["payment result", "transactionId"], "description": "Processes payment for a booking and returns the result."}, {"name": "/payment/{transactionId}/status", "method": "GET", "inputs": ["transactionId"], "outputs": ["payment status"], "description": "Retrieves the status of a payment transaction."}], "user_stories": ["12", "16"], "parameters": ["trainId", "date", "seatClass", "bookingId", "userId", "paymentMethod", "amount", "paymentDetails", "transactionId"], "description": "Provides ticket price information, payment options, and ensures secure, encrypted transactions."}], "patterns": [{"group_name": "Train Schedule Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Train Schedule Service"], "explaination": "Aggregate is used to ensure consistency within train schedule and status updates, as recommended in the context."}, {"group_name": "Train Schedule Events", "implementation_pattern": "domain event", "involved_microservices": ["Train Schedule Service"], "explaination": "Domain events are emitted for schedule/status changes, enabling other services (like Notification Service) to react, as per context."}, {"group_name": "Booking Transaction Management", "implementation_pattern": "saga", "involved_microservices": ["Booking Service", "Train Schedule Service", "Pricing &amp; Payment Service"], "explaination": "Saga is used to coordinate distributed transactions for booking, seat allocation, and payment, as described in the context."}, {"group_name": "Booking Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Booking Service"], "explaination": "Aggregate is used to maintain consistency for booking, seat selection, and cancellation, as per context."}, {"group_name": "Booking Events", "implementation_pattern": "domain event", "involved_microservices": ["Booking Service"], "explaination": "Domain events are published for booking lifecycle changes, enabling event-driven communication, as described in the context."}, {"group_name": "Notification Event Handling", "implementation_pattern": "domain event", "involved_microservices": ["Notification Service"], "explaination": "Notification Service listens for domain events (e.g., BookingConfirmed, TrainDelayed) to send notifications, as per context."}, {"group_name": "User Profile Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["User Profile Service"], "explaination": "Aggregate is used to ensure consistency for user profile updates and contact management, as recommended in the context."}, {"group_name": "User Profile Events", "implementation_pattern": "domain event", "involved_microservices": ["User Profile Service"], "explaination": "Domain events are emitted for profile/contact changes, enabling other services to react if needed, as per context."}, {"group_name": "Account &amp; Role Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Account &amp; Role Management Service"], "explaination": "Aggregate is used to ensure transactional consistency for authentication and authorization changes, as per context."}, {"group_name": "Admin Data Aggregation", "implementation_pattern": "api composition", "involved_microservices": ["Admin Management Service"], "explaination": "API Composition is used to gather data from multiple services for unified admin views and reporting, as described in the context."}, {"group_name": "Admin Read/Write Separation", "implementation_pattern": "cqrs", "involved_microservices": ["Admin Management Service"], "explaination": "CQRS is used to separate read and write models for efficient reporting and management, as per context."}, {"group_name": "Pricing &amp; Payment Data Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Pricing &amp; Payment Service"], "explaination": "Aggregate is used to ensure transactional integrity for payments and pricing rules, as recommended in the context."}, {"group_name": "Pricing &amp; Payment Transaction Management", "implementation_pattern": "saga", "involved_microservices": ["Pricing &amp; Payment Service", "Booking Service"], "explaination": "Saga is used to coordinate payment processes that may involve booking confirmation and seat allocation, as per context."}, {"group_name": "Pricing &amp; Payment Events", "implementation_pattern": "domain event", "involved_microservices": ["Pricing &amp; Payment Service"], "explaination": "Domain events are emitted for payment lifecycle changes, enabling other services to react, as described in the context."}], "datastore": [{"datastore_name": "TrainScheduleDB", "associated_microservices": ["Train Schedule Service"], "description": "Stores train schedules, availability, and status. Required for user stories 1 (search trains), 7 (notify delays/status), and 11 (validate availability)."}, {"datastore_name": "BookingDB", "associated_microservices": ["Booking Service"], "description": "Stores booking records, seat allocations, and booking status. Required for user stories 2 (book ticket), 6 (cancel/view bookings), 8 (admin view), 9 (confirmation), 13 (reporting), and 14 (seat selection)."}, {"datastore_name": "NotificationDB", "associated_microservices": ["Notification Service"], "description": "Stores notification templates and delivery logs. Required for user stories 3 (booking notifications), 7 (status notifications), and 9 (confirmation notifications)."}, {"datastore_name": "UserProfileDB", "associated_microservices": ["User Profile Service"], "description": "Stores user profiles and frequent contacts. Required for user stories 4 (manage contacts), 10 (update profile), and 15 (save frequent contacts)."}, {"datastore_name": "AccountRoleDB", "associated_microservices": ["Account &amp; Role Management Service"], "description": "Stores user accounts, authentication credentials, and roles. Required for user story 5 (account and role management)."}, {"datastore_name": "AdminReadModelDB", "associated_microservices": ["Admin Management Service"], "description": "Stores aggregated and denormalized data for admin queries and reports. Required for user stories 8 (admin view/manage bookings) and 13 (generate reports)."}, {"datastore_name": "PricingPaymentDB", "associated_microservices": ["Pricing &amp; Payment Service"], "description": "Stores pricing rules, payment transactions, and payment status. Required for user stories 12 (ticket prices/payment options) and 16 (secure transactions)."}]}</t>
+          <t>{'microservices': [{'name': 'Train Search Service', 'endpoints': [{'name': '/trains/search', 'method': 'GET', 'inputs': ['origin', 'destination', 'date', 'time'], 'outputs': ['list of available trains', 'schedules', 'availability'], 'description': 'Searches for available trains based on origin, destination, and travel date'}, {'name': '/trains/{trainId}/availability', 'method': 'GET', 'inputs': ['trainId', 'date'], 'outputs': ['seat availability', 'coach classes'], 'description': 'Validates train availability and returns seat information for a specific train'}, {'name': '/trains/{trainId}/schedule', 'method': 'GET', 'inputs': ['trainId'], 'outputs': ['train schedule', 'stops', 'timings'], 'description': 'Retrieves detailed schedule information for a specific train'}], 'user_stories': ['1', '11'], 'parameters': ['trainId', 'origin', 'destination', 'date', 'time', 'seat_availability', 'coach_classes'], 'description': 'Handles searching for available trains, schedules, and validating train availability for bookings.'}, {'name': 'Booking Service', 'endpoints': [{'name': '/bookings', 'method': 'POST', 'inputs': ['userId', 'trainId', 'date', 'passengers', 'seatPreferences', 'coachClass'], 'outputs': ['bookingId', 'booking status', 'seat numbers'], 'description': 'Creates a new train ticket booking with seat selection'}, {'name': '/bookings/{bookingId}', 'method': 'GET', 'inputs': ['bookingId', 'userId'], 'outputs': ['booking details', 'passengers', 'seats', 'status'], 'description': 'Retrieves details of a specific booking'}, {'name': '/bookings/user/{userId}', 'method': 'GET', 'inputs': ['userId'], 'outputs': ['list of user bookings'], 'description': 'Retrieves all bookings for a specific user'}, {'name': '/bookings/{bookingId}/cancel', 'method': 'POST', 'inputs': ['bookingId', 'userId', 'cancellation_reason'], 'outputs': ['cancellation status', 'refund details'], 'description': 'Cancels an existing booking and initiates refund process'}, {'name': '/bookings/{bookingId}/price', 'method': 'GET', 'inputs': ['bookingId', 'trainId', 'coachClass', 'passengers'], 'outputs': ['total price', 'price breakdown'], 'description': 'Calculates and returns ticket price for booking'}], 'user_stories': ['2', '6', '12', '14'], 'parameters': ['bookingId', 'userId', 'trainId', 'date', 'passengers', 'seatPreferences', 'coachClass', 'booking_status', 'seat_numbers', 'price', 'payment_reference'], 'description': 'Manages ticket bookings, cancellations, seat selection, price checking, and booking confirmations using event sourcing for audit trail.'}, {'name': 'Notification Service', 'endpoints': [{'name': '/notifications/send', 'method': 'POST', 'inputs': ['userId', 'notificationType', 'message', 'channel'], 'outputs': ['notification status'], 'description': 'Sends notifications to users via email or message'}, {'name': '/notifications/user/{userId}', 'method': 'GET', 'inputs': ['userId'], 'outputs': ['list of notifications', 'notification history'], 'description': 'Retrieves notification history for a user'}], 'user_stories': ['3', '7', '9'], 'parameters': ['userId', 'notificationType', 'message', 'channel', 'notification_status', 'sent_timestamp'], 'description': 'Sends notifications to users about bookings, confirmations, schedule changes, delays, and train status updates via email or messages.'}, {'name': 'User Profile Service', 'endpoints': [{'name': '/profiles/{userId}', 'method': 'GET', 'inputs': ['userId'], 'outputs': ['user profile', 'personal information', 'contact details'], 'description': 'Retrieves user profile information'}, {'name': '/profiles/{userId}', 'method': 'PUT', 'inputs': ['userId', 'personal_data', 'contact_information'], 'outputs': ['update status', 'updated profile'], 'description': 'Updates user profile and personal data'}, {'name': '/profiles/{userId}/contacts', 'method': 'GET', 'inputs': ['userId'], 'outputs': ['list of frequent contacts'], 'description': 'Retrieves frequent contacts for a user'}, {'name': '/profiles/{userId}/contacts', 'method': 'POST', 'inputs': ['userId', 'contact_name', 'contact_details'], 'outputs': ['contact saved status'], 'description': 'Saves a frequent contact for faster bookings'}, {'name': '/profiles/{userId}/contacts/{contactId}', 'method': 'DELETE', 'inputs': ['userId', 'contactId'], 'outputs': ['deletion status'], 'description': 'Deletes a frequent contact'}], 'user_stories': ['4', '10', '15'], 'parameters': ['userId', 'personal_data', 'contact_information', 'frequent_contacts', 'contactId'], 'description': 'Manages user personal information, contact details, profile updates, and frequent contacts storage.'}, {'name': 'User Management Service', 'endpoints': [{'name': '/auth/register', 'method': 'POST', 'inputs': ['email', 'password', 'name', 'phone'], 'outputs': ['registration status', 'userId'], 'description': 'Registers a new user account'}, {'name': '/auth/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['authentication token', 'userId', 'role'], 'description': 'Authenticates user and provides access token'}, {'name': '/auth/logout', 'method': 'POST', 'inputs': ['userId', 'token'], 'outputs': ['logout status'], 'description': 'Logs out user and invalidates token'}, {'name': '/users/{userId}/role', 'method': 'PUT', 'inputs': ['userId', 'role', 'adminId'], 'outputs': ['role update status'], 'description': 'Updates user role for access control'}, {'name': '/users/{userId}', 'method': 'GET', 'inputs': ['userId'], 'outputs': ['user account details', 'role', 'status'], 'description': 'Retrieves user account information'}], 'user_stories': ['5'], 'parameters': ['userId', 'email', 'password', 'role', 'authentication_token', 'account_status'], 'description': 'Handles user account management, authentication, authorization, role management, and secure access control.'}, {'name': 'Admin Service', 'endpoints': [{'name': '/admin/bookings', 'method': 'GET', 'inputs': ['filters', 'pagination', 'adminId'], 'outputs': ['list of all bookings', 'booking details'], 'description': 'Retrieves all bookings in the system with filtering options'}, {'name': '/admin/bookings/{bookingId}', 'method': 'PUT', 'inputs': ['bookingId', 'adminId', 'update_data'], 'outputs': ['booking update status'], 'description': 'Allows admin to manage and update booking information'}, {'name': '/admin/reports/sales', 'method': 'GET', 'inputs': ['start_date', 'end_date', 'adminId'], 'outputs': ['sales report', 'revenue data', 'booking statistics'], 'description': 'Generates sales reports for specified date range'}, {'name': '/admin/reports/usage', 'method': 'GET', 'inputs': ['start_date', 'end_date', 'adminId'], 'outputs': ['usage report', 'passenger statistics', 'popular routes'], 'description': 'Generates usage reports including passenger statistics'}], 'user_stories': ['8', '13'], 'parameters': ['adminId', 'filters', 'pagination', 'start_date', 'end_date', 'report_data'], 'description': 'Provides administrative functionalities including viewing/managing all bookings and generating reports on ticket sales and usage using CQRS for optimized reporting.'}, {'name': 'Payment Service', 'endpoints': [{'name': '/payments/process', 'method': 'POST', 'inputs': ['bookingId', 'userId', 'amount', 'payment_method', 'payment_details'], 'outputs': ['payment status', 'transaction_id', 'payment_reference'], 'description': 'Processes secure payment for ticket booking with encryption'}, {'name': '/payments/{transactionId}', 'method': 'GET', 'inputs': ['transactionId', 'userId'], 'outputs': ['payment details', 'transaction status'], 'description': 'Retrieves payment transaction details'}, {'name': '/payments/refund', 'method': 'POST', 'inputs': ['transactionId', 'bookingId', 'userId', 'refund_amount'], 'outputs': ['refund status', 'refund_reference'], 'description': 'Processes refund for cancelled bookings'}, {'name': '/payments/methods', 'method': 'GET', 'inputs': [], 'outputs': ['available payment methods', 'payment options'], 'description': 'Retrieves available payment methods and options'}], 'user_stories': ['16'], 'parameters': ['transactionId', 'bookingId', 'userId', 'amount', 'payment_method', 'payment_status', 'payment_reference', 'refund_amount'], 'description': 'Handles secure payment processing, transaction encryption, and payment option management for ticket bookings with event sourcing for compliance.'}], 'patterns': [{'group_name': 'Service Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['Train Search Service', 'Booking Service', 'User Profile Service', 'User Management Service', 'Admin Service', 'Payment Service', 'Notification Service'], 'explaination': 'I chose database per service pattern because the context recommends it for maintaining loose coupling between microservices, ensuring data isolation, and allowing independent scaling. Each service manages its own data domain - train schedules, bookings, user profiles, authentication, payments, and notifications - which aligns with microservices best practices and supports the distributed nature of the train ticketing system.'}, {'group_name': 'Booking Transaction Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Train Search Service', 'Booking Service', 'Payment Service', 'Notification Service'], 'explaination': 'I chose the saga pattern because the context specifically recommends it for coordinating the distributed booking transaction flow: train availability validation → seat reservation → payment processing → booking confirmation → notification sending. This ensures data consistency across services without distributed transactions, and handles compensating actions for failures (e.g., releasing seats if payment fails). User stories 2, 11, 12, 14, and 16 require this coordinated flow.'}, {'group_name': 'Cancellation Transaction Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Booking Service', 'Payment Service', 'Train Search Service', 'Notification Service'], 'explaination': 'I chose the saga pattern for cancellation flow as recommended in the context to orchestrate: refund processing → seat release → booking status update → cancellation notification. This ensures all compensating actions are executed in proper order when user story 6 (cancel bookings) is invoked, maintaining consistency across distributed services.'}, {'group_name': 'Booking History Query', 'implementation_pattern': 'api composition', 'involved_microservices': ['Booking Service', 'User Profile Service'], 'explaination': 'I chose API composition pattern because the context recommends it for cross-service queries. When retrieving user booking history (user story 6), data needs to be aggregated from Booking Service (booking details) and User Profile Service (user information) to provide a complete view, which aligns with the API composition pattern for read operations.'}, {'group_name': 'Admin Reporting', 'implementation_pattern': 'api composition', 'involved_microservices': ['Admin Service', 'Booking Service', 'Payment Service', 'Train Search Service'], 'explaination': 'I chose API composition pattern as recommended in the context for admin reports (user stories 8, 13). Generating comprehensive reports requires aggregating data from multiple services: booking statistics from Booking Service, revenue data from Payment Service, and train usage from Train Search Service. This pattern enables efficient cross-service data retrieval for reporting.'}, {'group_name': 'Booking Read-Write Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Booking Service'], 'explaination': 'I chose CQRS pattern because the context specifically recommends separating write models (booking creation/cancellation in user stories 2, 6, 14) from read models (viewing bookings in user stories 6, 8). This optimizes performance by using different data models for commands and queries, essential for a high-traffic booking system.'}, {'group_name': 'Admin Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Admin Service'], 'explaination': 'I chose CQRS pattern as recommended in the context to maintain read models optimized for reporting and dashboard queries (user stories 8, 13). This allows Admin Service to have specialized, denormalized views for efficient report generation without impacting transactional operations.'}, {'group_name': 'Train Search Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Train Search Service'], 'explaination': 'I chose CQRS pattern because the context recommends separating command models for availability updates from query models for train searches. User story 1 requires fast search performance, while user story 11 (availability validation) needs accurate write operations. CQRS enables optimized read models for search while maintaining consistency in availability updates.'}, {'group_name': 'Booking Lifecycle Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['Booking Service', 'Notification Service', 'Payment Service'], 'explaination': 'I chose domain event pattern because the context recommends events like BookingCreated, BookingCancelled, and PaymentCompleted to trigger notification and confirmation processes (user stories 3, 9). This enables loose coupling where Notification Service reacts to booking lifecycle changes without tight dependencies, supporting asynchronous communication.'}, {'group_name': 'Train Schedule Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['Train Search Service', 'Notification Service'], 'explaination': 'I chose domain event pattern as recommended in the context to handle TrainScheduleChanged events that trigger user notifications about delays and updates (user story 7). This allows Train Search Service to publish schedule changes without knowing about notification mechanisms, maintaining service independence.'}, {'group_name': 'Profile Update Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['User Profile Service', 'Booking Service'], 'explaination': 'I chose domain event pattern because the context recommends UserProfileUpdated events to propagate profile changes (user story 10) to related services. When users update contact information (user story 4), this ensures Booking Service has current user data without direct coupling.'}, {'group_name': 'Booking Audit Trail', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Booking Service'], 'explaination': 'I chose event sourcing pattern as specifically recommended in the context to maintain a complete audit trail of booking lifecycle (created, modified, cancelled). This is critical for user stories 2, 6, 14 where tracking all state changes provides accountability, enables replay for debugging, and supports potential dispute resolution in a ticketing system.'}, {'group_name': 'Payment Compliance', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Payment Service'], 'explaination': 'I chose event sourcing pattern because the context recommends tracking all payment state changes for compliance and auditing (user story 16). This is essential for secure transactions, regulatory compliance, fraud detection, and maintaining an immutable record of all payment operations and refunds.'}, {'group_name': 'Booking Aggregate Root', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Booking Service'], 'explaination': 'I chose the aggregate pattern as recommended in the context to group booking, passenger details, seat selection, and payment reference into a cohesive unit. This ensures consistency boundaries for user stories 2, 12, 14, 16 where all booking-related data must be modified together as a single transactional unit, maintaining invariants like seat availability.'}, {'group_name': 'User Profile Aggregate Root', 'implementation_pattern': 'aggregate', 'involved_microservices': ['User Profile Service'], 'explaination': 'I chose the aggregate pattern because the context recommends combining personal info, contact details, and frequent contacts (user stories 4, 10, 15) into a single aggregate. This ensures profile updates maintain consistency across related data and provides a clear transactional boundary for user information management.'}, {'group_name': 'Train Schedule Aggregate Root', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Train Search Service'], 'explaination': 'I chose the aggregate pattern as recommended in the context to group train information, available seats, and pricing (user stories 1, 11) into a single consistency boundary. This ensures that seat availability updates during booking are atomic and prevents overbooking by maintaining integrity within the train schedule aggregate.'}], 'datastore': [{'datastore_name': 'Train Search Database', 'associated_microservices': ['Train Search Service'], 'description': 'Stores train schedules, routes, stops, timings, seat availability, coach classes, and pricing information. Optimized with CQRS read models for fast search queries (user story 1) and separate write models for availability updates (user story 11). Part of database per service pattern for isolation.'}, {'datastore_name': 'Booking Database', 'associated_microservices': ['Booking Service'], 'description': 'Stores booking records, passenger details, seat allocations, booking status, and payment references. Implements event sourcing to maintain complete audit trail of booking lifecycle (created, modified, cancelled) for user stories 2, 6, 12, 14. Uses CQRS with separate read and write models. Contains booking aggregates as recommended. Part of database per service pattern.'}, {'datastore_name': 'Notification Database', 'associated_microservices': ['Notification Service'], 'description': 'Stores notification history, delivery status, user preferences, and message templates. Supports user stories 3, 7, 9 for booking confirmations, schedule changes, and delay notifications. Subscribes to domain events from other services. Part of database per service pattern.'}, {'datastore_name': 'User Profile Database', 'associated_microservices': ['User Profile Service'], 'description': 'Stores user personal information, contact details, and frequent contacts as aggregates. Supports user stories 4, 10, 15 for managing profiles and storing frequent contacts for faster bookings. Publishes domain events for profile updates. Part of database per service pattern for data isolation.'}, {'datastore_name': 'User Management Database', 'associated_microservices': ['User Management Service'], 'description': 'Stores authentication credentials, authorization tokens, user roles, and account status. Supports user story 5 for secure access control and role management. Contains encrypted passwords and session management data. Part of database per service pattern for security isolation.'}, {'datastore_name': 'Admin Database', 'associated_microservices': ['Admin Service'], 'description': 'Stores administrative data, cached reports, and optimized read models for dashboard queries. Uses CQRS pattern with denormalized views for efficient reporting on user stories 8, 13 (booking management and sales reports). Aggregates data via API composition from other services. Part of database per service pattern.'}, {'datastore_name': 'Payment Database', 'associated_microservices': ['Payment Service'], 'description': 'Stores payment transactions, refund records, payment methods, and encrypted payment details. Implements event sourcing for compliance and auditing requirements (user story 16). Maintains immutable record of all payment state changes for security and regulatory compliance. Part of database per service pattern for payment isolation.'}]}</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.073</v>
+        <v>0.0975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6624</v>
+        <v>0.5697</v>
       </c>
     </row>
     <row r="6">
@@ -678,14 +678,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Catalog Service", "endpoints": [{"name": "/teas", "method": "GET", "inputs": [], "outputs": ["list of teas"], "description": "Retrieves a list of available teas for browsing."}, {"name": "/teas/{teaId}", "method": "GET", "inputs": ["teaId"], "outputs": ["tea details"], "description": "Retrieves details for a specific tea."}, {"name": "/teas/{teaId}/availability", "method": "GET", "inputs": ["teaId"], "outputs": ["availability status"], "description": "Checks the availability of a specific tea."}, {"name": "/teas", "method": "POST", "inputs": ["tea data"], "outputs": ["created tea"], "description": "Adds a new tea product to the catalog (admin operation)."}, {"name": "/teas/{teaId}", "method": "PUT", "inputs": ["teaId", "tea data"], "outputs": ["updated tea"], "description": "Updates an existing tea product (admin operation)."}, {"name": "/teas/{teaId}", "method": "DELETE", "inputs": ["teaId"], "outputs": ["deletion result"], "description": "Deletes a tea product from the catalog (admin operation)."}], "user_stories": ["1", "3", "5", "9", "11", "12"], "parameters": ["teaId", "tea data", "availability status"], "description": "Manages the catalog of tea products, including browsing, viewing details, checking availability, and admin operations for adding, updating, or deleting teas."}, {"name": "Recommendation Service", "endpoints": [{"name": "/recommendations", "method": "GET", "inputs": ["userId"], "outputs": ["list of recommended teas"], "description": "Provides personalized tea recommendations for a user."}, {"name": "/recommendations/batch", "method": "POST", "inputs": ["list of userIds"], "outputs": ["list of recommendations per user"], "description": "Processes multiple recommendation requests for users."}], "user_stories": ["2", "11"], "parameters": ["userId", "list of userIds"], "description": "Provides personalized tea recommendations to customers and processes single or multiple recommendation requests."}, {"name": "Cart Service", "endpoints": [{"name": "/cart/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["cart contents"], "description": "Retrieves the current shopping cart for a user."}, {"name": "/cart/{userId}/items", "method": "POST", "inputs": ["userId", "teaId", "quantity"], "outputs": ["updated cart"], "description": "Adds a tea to the user's shopping cart."}, {"name": "/cart/{userId}/items/{teaId}", "method": "DELETE", "inputs": ["userId", "teaId"], "outputs": ["updated cart"], "description": "Removes a tea from the user's shopping cart."}, {"name": "/cart/{userId}/checkout", "method": "POST", "inputs": ["userId"], "outputs": ["checkout result"], "description": "Initiates the checkout process for the user's cart."}], "user_stories": ["4"], "parameters": ["userId", "teaId", "quantity"], "description": "Handles shopping cart operations, allowing customers to add teas and prepare orders."}, {"name": "Order Service", "endpoints": [{"name": "/orders", "method": "POST", "inputs": ["userId", "order data"], "outputs": ["order confirmation"], "description": "Places a new order for teas in the user's cart."}, {"name": "/orders/{orderId}", "method": "GET", "inputs": ["orderId"], "outputs": ["order details"], "description": "Retrieves details of a specific order."}, {"name": "/orders/user/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["list of past orders"], "description": "Retrieves past orders for a user."}, {"name": "/orders/{orderId}/status", "method": "PUT", "inputs": ["orderId", "status"], "outputs": ["updated order"], "description": "Updates the status of an order (e.g., shipped, delivered)."}], "user_stories": ["7", "8", "10"], "parameters": ["orderId", "userId", "order data", "status", "timestamp"], "description": "Processes tea orders, confirms purchases, tracks and updates order timestamps, and allows customers to review past orders."}, {"name": "Store Readiness Service", "endpoints": [{"name": "/store/status", "method": "GET", "inputs": [], "outputs": ["store readiness status"], "description": "Retrieves the current readiness status of the store for processing orders."}, {"name": "/store/status", "method": "PUT", "inputs": ["status"], "outputs": ["updated status"], "description": "Updates the store readiness status (admin/system operation)."}], "user_stories": ["6"], "parameters": ["status"], "description": "Tracks and reports the readiness status of the store for processing orders."}, {"name": "Review Service", "endpoints": [{"name": "/reviews", "method": "POST", "inputs": ["userId", "teaId", "rating", "review text"], "outputs": ["created review"], "description": "Allows a customer to submit a review and rating for a tea."}, {"name": "/reviews/tea/{teaId}", "method": "GET", "inputs": ["teaId"], "outputs": ["list of reviews"], "description": "Retrieves all reviews for a specific tea."}, {"name": "/reviews/user/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["list of reviews by user"], "description": "Retrieves all reviews submitted by a user."}], "user_stories": ["13"], "parameters": ["userId", "teaId", "rating", "review text"], "description": "Allows customers to rate and review teas they have purchased."}, {"name": "Notification Service", "endpoints": [{"name": "/notifications/send", "method": "POST", "inputs": ["userId", "notification content"], "outputs": ["notification result"], "description": "Sends a notification to a user."}, {"name": "/notifications/broadcast", "method": "POST", "inputs": ["notification content"], "outputs": ["broadcast result"], "description": "Sends a notification to all users (e.g., special offers, new arrivals)."}], "user_stories": ["14"], "parameters": ["userId", "notification content"], "description": "Sends notifications to customers about special offers and new arrivals."}], "patterns": [{"group_name": "Catalog Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Catalog Service"], "explaination": "Each microservice should have its own database for loose coupling and independent scaling. The context and user stories (1, 3, 5, 9, 11, 12) require Catalog Service to manage its own data."}, {"group_name": "Catalog Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Catalog Service"], "explaination": "Catalog Service encapsulates business rules for tea products. User stories about adding, updating, deleting, and checking teas (1, 3, 5, 9, 12) require aggregates."}, {"group_name": "Catalog Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Catalog Service"], "explaination": "Catalog Service publishes events when products are changed, supporting features like notifications and recommendations (user stories 11, 14)."}, {"group_name": "Catalog Query Optimization", "implementation_pattern": "cqrs", "involved_microservices": ["Catalog Service"], "explaination": "Browsing and searching teas (user stories 1, 3, 5) require efficient queries, so CQRS is used."}, {"group_name": "Recommendation Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Recommendation Service"], "explaination": "Recommendation Service manages its own recommendation data for scalability and independence (user stories 2, 11)."}, {"group_name": "Recommendation Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Recommendation Service"], "explaination": "Recommendation Service encapsulates recommendation logic as aggregates (user stories 2, 11)."}, {"group_name": "Recommendation Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Recommendation Service"], "explaination": "Recommendation Service publishes events when new recommendations are generated (user stories 2, 11)."}, {"group_name": "Recommendation API Composition", "implementation_pattern": "api composition", "involved_microservices": ["Recommendation Service", "Catalog Service"], "explaination": "To present recommendations with product details, Recommendation Service composes APIs from Catalog Service (user stories 2, 11)."}, {"group_name": "Cart Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Cart Service"], "explaination": "Cart Service manages shopping cart data independently (user story 4)."}, {"group_name": "Cart Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Cart Service"], "explaination": "Cart Service encapsulates cart operations as aggregates (user story 4)."}, {"group_name": "Cart Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Cart Service"], "explaination": "Cart Service publishes events when carts are updated, supporting order placement and notifications (user story 4)."}, {"group_name": "Order Placement Saga", "implementation_pattern": "saga", "involved_microservices": ["Cart Service", "Order Service", "Catalog Service", "Store Readiness Service"], "explaination": "Placing an order spans multiple services (Cart, Order, Catalog for availability, Store Readiness). Saga coordinates distributed transactions for user stories 4, 5, 6, 7."}, {"group_name": "Order Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Order Service"], "explaination": "Order Service manages order data independently for scalability and traceability (user stories 7, 8, 10)."}, {"group_name": "Order Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Order Service"], "explaination": "Order Service encapsulates order state transitions and business rules as aggregates (user stories 7, 8, 10)."}, {"group_name": "Order Event Sourcing", "implementation_pattern": "event sourcing", "involved_microservices": ["Order Service"], "explaination": "Order Service uses event sourcing to track order status changes and timestamps for auditability (user stories 7, 8, 10)."}, {"group_name": "Order Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Order Service"], "explaination": "Order Service publishes events when orders are placed or updated, supporting notifications and reviews (user stories 7, 8, 10, 13, 14)."}, {"group_name": "Order Query Optimization", "implementation_pattern": "cqrs", "involved_microservices": ["Order Service"], "explaination": "Order Service supports efficient queries for reviewing past orders (user story 10)."}, {"group_name": "Store Readiness Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Store Readiness Service"], "explaination": "Store Readiness Service manages its own status data (user story 6)."}, {"group_name": "Store Readiness Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Store Readiness Service"], "explaination": "Store Readiness Service encapsulates store status as an aggregate (user story 6)."}, {"group_name": "Store Readiness Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Store Readiness Service"], "explaination": "Store Readiness Service publishes events when store status changes (user story 6)."}, {"group_name": "Review Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Review Service"], "explaination": "Review Service manages review data independently (user story 13)."}, {"group_name": "Review Aggregates and Events", "implementation_pattern": "aggregate", "involved_microservices": ["Review Service"], "explaination": "Review Service encapsulates review logic as aggregates (user story 13)."}, {"group_name": "Review Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Review Service"], "explaination": "Review Service publishes events when reviews are submitted, supporting notifications and recommendations (user story 13)."}, {"group_name": "Review API Composition", "implementation_pattern": "api composition", "involved_microservices": ["Review Service", "Catalog Service"], "explaination": "Review Service composes APIs from Catalog Service to fetch tea details for reviews (user story 13)."}, {"group_name": "Notification Data Management", "implementation_pattern": "database per service", "involved_microservices": ["Notification Service"], "explaination": "Notification Service manages notification data independently (user story 14)."}, {"group_name": "Notification Domain Events", "implementation_pattern": "domain event", "involved_microservices": ["Notification Service"], "explaination": "Notification Service subscribes to domain events from other services to trigger notifications (user story 14)."}], "datastore": [{"datastore_name": "Catalog Database", "associated_microservices": ["Catalog Service"], "description": "Stores tea product data, including details, availability, and admin modifications. Required for browsing, updating, and deleting teas (user stories 1, 3, 5, 9, 11, 12)."}, {"datastore_name": "Recommendation Database", "associated_microservices": ["Recommendation Service"], "description": "Stores user recommendation data and history. Needed for personalized and batch recommendations (user stories 2, 11)."}, {"datastore_name": "Cart Database", "associated_microservices": ["Cart Service"], "description": "Stores shopping cart contents for each user, supporting add/remove/checkout operations (user story 4)."}, {"datastore_name": "Order Database", "associated_microservices": ["Order Service"], "description": "Stores order data, status, and event history for traceability and order review (user stories 7, 8, 10)."}, {"datastore_name": "Store Readiness Database", "associated_microservices": ["Store Readiness Service"], "description": "Stores the current readiness status of the store, required for order processing checks (user story 6)."}, {"datastore_name": "Review Database", "associated_microservices": ["Review Service"], "description": "Stores customer reviews and ratings for teas, supporting review submission and retrieval (user story 13)."}, {"datastore_name": "Notification Database", "associated_microservices": ["Notification Service"], "description": "Stores notification history and templates for sending to users (user story 14)."}]}</t>
+          <t>{'microservices': [{'name': 'catalog-service', 'endpoints': [{'name': '/teas', 'method': 'GET', 'inputs': ['filter_criteria', 'pagination'], 'outputs': ['tea_list'], 'description': 'Browse available teas with optional filtering and pagination'}, {'name': '/teas/{tea_id}', 'method': 'GET', 'inputs': ['tea_id'], 'outputs': ['tea_details'], 'description': 'View details about a specific tea product'}, {'name': '/teas/{tea_id}/availability', 'method': 'GET', 'inputs': ['tea_id'], 'outputs': ['availability_status', 'quantity'], 'description': 'Check the availability of a specific tea'}, {'name': '/teas', 'method': 'POST', 'inputs': ['tea_name', 'description', 'price', 'inventory_quantity'], 'outputs': ['tea_id', 'creation_status'], 'description': 'Add a new tea product to the catalog'}, {'name': '/teas/{tea_id}', 'method': 'PUT', 'inputs': ['tea_id', 'tea_name', 'description', 'price', 'inventory_quantity'], 'outputs': ['update_status'], 'description': 'Update an existing tea product in the catalog'}, {'name': '/teas/{tea_id}', 'method': 'DELETE', 'inputs': ['tea_id'], 'outputs': ['deletion_status'], 'description': 'Delete a discontinued tea product from the catalog'}], 'user_stories': ['1', '3', '5', '9', '12'], 'parameters': ['tea_id', 'tea_name', 'description', 'price', 'inventory_quantity', 'availability_status'], 'description': 'Manages the tea product catalog including browsing, viewing details, checking availability, and CRUD operations for tea products'}, {'name': 'recommendation-service', 'endpoints': [{'name': '/recommendations/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'limit'], 'outputs': ['recommended_tea_list'], 'description': 'Get personalized tea recommendations for a specific user'}, {'name': '/recommendations/batch', 'method': 'POST', 'inputs': ['user_id_list'], 'outputs': ['batch_recommendations'], 'description': 'Process multiple recommendation requests for multiple users'}], 'user_stories': ['2', '11'], 'parameters': ['user_id', 'user_preferences', 'purchase_history', 'recommendation_score'], 'description': 'Provides personalized tea recommendations to customers based on their preferences and purchase history'}, {'name': 'cart-service', 'endpoints': [{'name': '/cart/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['cart_items', 'cart_total'], 'description': 'Retrieve the current shopping cart for a user'}, {'name': '/cart/{user_id}/items', 'method': 'POST', 'inputs': ['user_id', 'tea_id', 'quantity'], 'outputs': ['cart_update_status'], 'description': 'Add a tea product to the shopping cart'}, {'name': '/cart/{user_id}/items/{item_id}', 'method': 'PUT', 'inputs': ['user_id', 'item_id', 'quantity'], 'outputs': ['cart_update_status'], 'description': 'Update quantity of an item in the cart'}, {'name': '/cart/{user_id}/items/{item_id}', 'method': 'DELETE', 'inputs': ['user_id', 'item_id'], 'outputs': ['cart_update_status'], 'description': 'Remove an item from the shopping cart'}], 'user_stories': ['4'], 'parameters': ['user_id', 'cart_id', 'cart_items', 'item_id', 'tea_id', 'quantity', 'cart_total'], 'description': 'Handles shopping cart operations including adding teas and managing cart state before checkout'}, {'name': 'order-service', 'endpoints': [{'name': '/orders', 'method': 'POST', 'inputs': ['user_id', 'cart_id', 'payment_details', 'shipping_address'], 'outputs': ['order_id', 'order_confirmation', 'order_timestamp'], 'description': 'Create a new order from the shopping cart'}, {'name': '/orders/{order_id}', 'method': 'GET', 'inputs': ['order_id'], 'outputs': ['order_details', 'order_status', 'order_timestamp'], 'description': 'Retrieve details of a specific order'}, {'name': '/orders/user/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'pagination'], 'outputs': ['order_history'], 'description': 'Retrieve order history for a customer'}, {'name': '/orders/{order_id}/timestamp', 'method': 'PUT', 'inputs': ['order_id', 'timestamp'], 'outputs': ['update_status'], 'description': 'Update the timestamp of an order for traceability'}], 'user_stories': ['7', '8', '10'], 'parameters': ['order_id', 'user_id', 'cart_id', 'order_items', 'order_total', 'order_status', 'order_timestamp', 'payment_details', 'shipping_address'], 'description': 'Processes tea orders, manages order confirmation, tracks order timestamps, and maintains order history for customers'}, {'name': 'review-service', 'endpoints': [{'name': '/reviews', 'method': 'POST', 'inputs': ['user_id', 'tea_id', 'rating', 'review_text'], 'outputs': ['review_id', 'submission_status'], 'description': 'Submit a rating and review for a purchased tea'}, {'name': '/reviews/tea/{tea_id}', 'method': 'GET', 'inputs': ['tea_id', 'pagination'], 'outputs': ['review_list', 'average_rating'], 'description': 'Retrieve all reviews for a specific tea product'}, {'name': '/reviews/user/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['user_review_list'], 'description': 'Retrieve all reviews submitted by a specific user'}], 'user_stories': ['13'], 'parameters': ['review_id', 'user_id', 'tea_id', 'rating', 'review_text', 'review_timestamp'], 'description': 'Manages customer ratings and reviews for purchased tea products'}, {'name': 'notification-service', 'endpoints': [{'name': '/notifications/send', 'method': 'POST', 'inputs': ['user_id', 'notification_type', 'message_content'], 'outputs': ['notification_id', 'delivery_status'], 'description': 'Send a notification to a specific user'}, {'name': '/notifications/broadcast', 'method': 'POST', 'inputs': ['notification_type', 'message_content', 'user_segment'], 'outputs': ['broadcast_id', 'delivery_status'], 'description': 'Broadcast notifications to multiple users'}, {'name': '/notifications/user/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['notification_list'], 'description': 'Retrieve notification history for a user'}], 'user_stories': ['14'], 'parameters': ['notification_id', 'user_id', 'notification_type', 'message_content', 'delivery_status', 'timestamp'], 'description': 'Sends notifications to customers about special offers, new arrivals, and other promotional content'}, {'name': 'health-service', 'endpoints': [{'name': '/health/status', 'method': 'GET', 'inputs': [], 'outputs': ['overall_status', 'component_statuses'], 'description': 'Check the overall health status of the store'}, {'name': '/health/readiness', 'method': 'GET', 'inputs': [], 'outputs': ['readiness_status'], 'description': 'Check if the store is ready to process orders'}, {'name': '/health/components/{component_name}', 'method': 'GET', 'inputs': ['component_name'], 'outputs': ['component_status', 'metrics'], 'description': 'Check the health status of a specific component'}], 'user_stories': ['6'], 'parameters': ['component_name', 'overall_status', 'readiness_status', 'component_statuses', 'health_metrics', 'timestamp'], 'description': 'Monitors and reports the readiness status of the store and its components to ensure system availability'}], 'patterns': [{'group_name': 'service_data_isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['catalog-service', 'recommendation-service', 'cart-service', 'order-service', 'review-service', 'notification-service', 'health-service'], 'explaination': 'I chose this pattern because each microservice needs to maintain its own data independently to ensure loose coupling, independent deployment, and scalability. This aligns with the context recommendation that all services should have their own databases for data isolation and independence.'}, {'group_name': 'order_purchase_transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['order-service', 'cart-service', 'catalog-service', 'notification-service'], 'explaination': 'I chose the saga pattern because the order purchase flow (User Story 7) requires a distributed transaction that spans multiple services: retrieving cart items, creating an order, reducing inventory in the catalog, and sending order confirmation notifications. The saga pattern ensures data consistency across these services without using distributed transactions.'}, {'group_name': 'product_lifecycle_coordination', 'implementation_pattern': 'saga', 'involved_microservices': ['catalog-service', 'recommendation-service'], 'explaination': 'I chose the saga pattern for product deletion (User Story 12) because when a tea product is discontinued, the catalog-service needs to coordinate with the recommendation-service to ensure the deleted product is removed from recommendation algorithms and maintain consistency across services.'}, {'group_name': 'asynchronous_event_communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['order-service', 'catalog-service', 'review-service', 'notification-service', 'recommendation-service'], 'explaination': 'I chose the domain event pattern because multiple services need to react to events asynchronously: OrderPlaced events trigger notifications (User Story 7), ProductUpdated events update recommendations (User Stories 9, 12), ReviewSubmitted events update product ratings (User Story 13), and NewArrival events trigger customer notifications (User Story 14). This ensures loose coupling and event-driven architecture.'}, {'group_name': 'cross_service_queries', 'implementation_pattern': 'api composition', 'involved_microservices': ['recommendation-service', 'order-service', 'cart-service', 'catalog-service'], 'explaination': 'I chose API composition because several user stories require data from multiple services: personalized recommendations need purchase history from order-service (User Story 2), order history needs product details from catalog-service (User Story 10), and cart operations need availability checks from catalog-service (User Story 5). API composition allows efficient cross-service queries.'}, {'group_name': 'optimized_read_operations', 'implementation_pattern': 'cqrs', 'involved_microservices': ['recommendation-service', 'order-service'], 'explaination': 'I chose CQRS because the recommendation-service needs to maintain optimized read models combining user preferences and purchase patterns for fast recommendation generation (User Stories 2, 11), and the order-service needs optimized read views for order history queries (User Story 10). This separation of read and write models improves query performance.'}, {'group_name': 'transactional_consistency_boundaries', 'implementation_pattern': 'aggregate', 'involved_microservices': ['order-service', 'catalog-service', 'cart-service'], 'explaination': 'I chose the aggregate pattern because certain entities need to maintain transactional consistency: Order Aggregate groups order items, customer info, and timestamps (User Stories 7, 8), Tea Product Aggregate groups tea details, inventory, and availability (User Stories 1, 3, 5), and Cart Aggregate maintains cart items and state consistency (User Story 4). This ensures data integrity within bounded contexts.'}], 'datastore': [{'datastore_name': 'catalog_database', 'associated_microservices': ['catalog-service'], 'description': 'Stores tea product information including name, description, price, inventory quantity, and availability status. Supports User Stories 1, 3, 5, 9, 12 for browsing, viewing details, checking availability, and CRUD operations. Required by database per service pattern and aggregate pattern for Tea Product Aggregate.'}, {'datastore_name': 'recommendation_database', 'associated_microservices': ['recommendation-service'], 'description': 'Stores user preferences, purchase history, recommendation algorithms, and optimized read models for fast recommendation generation. Supports User Stories 2, 11 for personalized recommendations and batch processing. Required by database per service pattern and CQRS pattern for maintaining separate read models.'}, {'datastore_name': 'cart_database', 'associated_microservices': ['cart-service'], 'description': 'Stores active shopping carts including cart items, quantities, and cart state for users. Supports User Story 4 for adding teas to cart and managing cart operations. Required by database per service pattern and aggregate pattern for Cart Aggregate consistency.'}, {'datastore_name': 'order_database', 'associated_microservices': ['order-service'], 'description': 'Stores order information including order items, timestamps, payment details, shipping addresses, order status, and order history. Supports User Stories 7, 8, 10 for order processing, timestamp tracking, and order history retrieval. Required by database per service pattern, CQRS pattern for optimized read views, and aggregate pattern for Order Aggregate.'}, {'datastore_name': 'review_database', 'associated_microservices': ['review-service'], 'description': 'Stores customer ratings and reviews for tea products including review text, ratings, and timestamps. Supports User Story 13 for rating and reviewing purchased teas. Required by database per service pattern and domain event pattern for ReviewSubmitted events.'}, {'datastore_name': 'notification_database', 'associated_microservices': ['notification-service'], 'description': 'Stores notification templates, delivery logs, notification history, and user notification preferences. Supports User Story 14 for sending notifications about special offers and new arrivals. Required by database per service pattern and domain event pattern for receiving OrderPlaced and NewArrival events.'}, {'datastore_name': 'health_database', 'associated_microservices': ['health-service'], 'description': 'Stores health check results, component status metrics, readiness status, and monitoring data. Supports User Story 6 for checking store readiness before checkout. Required by database per service pattern for maintaining health monitoring data.'}]}</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.1026</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7221</v>
+        <v>0.6389</v>
       </c>
     </row>
     <row r="7">
@@ -720,14 +720,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Catalog Service", "endpoints": [{"name": "/products", "method": "GET", "inputs": ["search", "filter", "sort", "page", "pageSize"], "outputs": ["product list"], "description": "Returns a list of available sock products, with optional search, filter, and pagination."}, {"name": "/products/{productId}", "method": "GET", "inputs": ["productId"], "outputs": ["product details"], "description": "Returns details for a specific sock product."}, {"name": "/products", "method": "POST", "inputs": ["product data"], "outputs": ["created product"], "description": "Adds a new sock product to the catalog (admin only)."}, {"name": "/products/{productId}", "method": "PUT", "inputs": ["productId", "product data"], "outputs": ["updated product"], "description": "Updates an existing sock product in the catalog (admin only)."}], "user_stories": ["1", "6", "14"], "parameters": ["productId", "product data", "search", "filter", "sort", "page", "pageSize"], "description": "Manages the sock product catalog, including browsing, searching, and admin updates to listings."}, {"name": "Cart Service", "endpoints": [{"name": "/cart/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["cart contents"], "description": "Returns the current contents of the user's shopping cart."}, {"name": "/cart/{userId}/items", "method": "POST", "inputs": ["userId", "productId", "quantity"], "outputs": ["updated cart"], "description": "Adds an item to the user's shopping cart."}, {"name": "/cart/{userId}/items/{productId}", "method": "PUT", "inputs": ["userId", "productId", "quantity"], "outputs": ["updated cart"], "description": "Updates the quantity of an item in the user's shopping cart."}, {"name": "/cart/{userId}/items/{productId}", "method": "DELETE", "inputs": ["userId", "productId"], "outputs": ["updated cart"], "description": "Removes an item from the user's shopping cart."}], "user_stories": ["2", "3"], "parameters": ["userId", "productId", "quantity"], "description": "Handles shopping cart operations such as adding items, updating quantities, and viewing cart contents."}, {"name": "Checkout Service", "endpoints": [{"name": "/checkout", "method": "POST", "inputs": ["userId", "paymentInfo", "shippingAddress"], "outputs": ["checkout result", "orderId"], "description": "Processes checkout, including payment and order creation."}], "user_stories": ["4"], "parameters": ["userId", "paymentInfo", "shippingAddress"], "description": "Processes checkout operations, including payment handling and order creation."}, {"name": "Order Service", "endpoints": [{"name": "/orders/{userId}", "method": "GET", "inputs": ["userId"], "outputs": ["order history"], "description": "Returns the order history for a user."}, {"name": "/orders/{orderId}", "method": "GET", "inputs": ["orderId"], "outputs": ["order details"], "description": "Returns details and status for a specific order."}, {"name": "/orders/{orderId}/reorder", "method": "POST", "inputs": ["orderId", "userId"], "outputs": ["new orderId"], "description": "Allows a user to reorder a previous purchase."}, {"name": "/orders/{orderId}/status", "method": "PUT", "inputs": ["orderId", "status"], "outputs": ["updated order"], "description": "Updates the status of an order (system/internal use)."}], "user_stories": ["5", "7", "10"], "parameters": ["userId", "orderId", "status"], "description": "Manages order processing, order history, order confirmation, and status updates."}, {"name": "Shipping Service", "endpoints": [{"name": "/shipments/{orderId}", "method": "GET", "inputs": ["orderId"], "outputs": ["shipment status"], "description": "Returns the shipment status for a given order."}, {"name": "/shipments/{orderId}/status", "method": "PUT", "inputs": ["orderId", "shipmentStatus"], "outputs": ["updated shipment"], "description": "Updates the shipment status for a given order."}], "user_stories": ["15"], "parameters": ["orderId", "shipmentStatus"], "description": "Tracks shipment status and updates customers on delivery progress."}, {"name": "Inventory Service", "endpoints": [{"name": "/inventory/{productId}", "method": "GET", "inputs": ["productId"], "outputs": ["stock level"], "description": "Returns the current stock level for a product."}, {"name": "/inventory/{productId}/reserve", "method": "POST", "inputs": ["productId", "quantity"], "outputs": ["reservation result"], "description": "Reserves stock for an order."}, {"name": "/inventory/{productId}/release", "method": "POST", "inputs": ["productId", "quantity"], "outputs": ["release result"], "description": "Releases reserved stock (e.g., on order cancellation)."}, {"name": "/inventory/{productId}", "method": "PUT", "inputs": ["productId", "stock level"], "outputs": ["updated inventory"], "description": "Updates the stock level for a product (admin/system use)."}], "user_stories": ["14"], "parameters": ["productId", "quantity", "stock level"], "description": "Ensures product availability and prevents ordering of out-of-stock items."}, {"name": "Rating/Review Service", "endpoints": [{"name": "/ratings/{orderId}", "method": "POST", "inputs": ["orderId", "userId", "rating", "review"], "outputs": ["rating result"], "description": "Allows a customer to rate and review their purchase experience."}, {"name": "/ratings/{productId}", "method": "GET", "inputs": ["productId"], "outputs": ["ratings list"], "description": "Returns ratings and reviews for a product."}], "user_stories": ["12"], "parameters": ["orderId", "userId", "productId", "rating", "review"], "description": "Allows customers to rate their purchase experience."}, {"name": "Logging Service", "endpoints": [{"name": "/logs", "method": "POST", "inputs": ["event", "level", "timestamp", "service", "details"], "outputs": ["log result"], "description": "Logs an event for monitoring and debugging."}, {"name": "/logs", "method": "GET", "inputs": ["filter", "level", "service", "dateRange"], "outputs": ["log entries"], "description": "Retrieves logs for admin review, filtering by level, service, or date."}], "user_stories": ["8", "13"], "parameters": ["event", "level", "timestamp", "service", "details", "filter", "dateRange"], "description": "Logs important events for monitoring, debugging, and admin review of failed transactions or errors."}, {"name": "Monitoring Service", "endpoints": [{"name": "/metrics", "method": "GET", "inputs": [], "outputs": ["metrics data"], "description": "Returns service health and performance metrics (Prometheus integration)."}, {"name": "/alerts", "method": "GET", "inputs": [], "outputs": ["alerts"], "description": "Returns current alerts for potential issues."}], "user_stories": ["9", "11"], "parameters": ["metrics data", "alerts"], "description": "Monitors service health and performance, integrates with Prometheus, and detects/alerts admins to potential issues in real time."}], "patterns": [{"group_name": "Per-Service Data Isolation", "implementation_pattern": "database per service", "involved_microservices": ["Catalog Service", "Cart Service", "Checkout Service", "Order Service", "Shipping Service", "Inventory Service", "Rating/Review Service", "Logging Service", "Monitoring Service"], "explaination": "Each microservice manages its own data and database, ensuring loose coupling and independent scaling. This is recommended in the context for all Sock Shop services."}, {"group_name": "Order Fulfillment Saga", "implementation_pattern": "saga", "involved_microservices": ["Checkout Service", "Order Service", "Inventory Service", "Shipping Service"], "explaination": "The checkout and order fulfillment process spans multiple services and requires coordination for consistency (e.g., payment, inventory reservation, shipping). The context recommends Saga for such business transactions."}, {"group_name": "Catalog and Inventory Consistency", "implementation_pattern": "domain event", "involved_microservices": ["Catalog Service", "Inventory Service"], "explaination": "When catalog updates occur, inventory may need to react (e.g., new product added). Domain events allow services to react to significant changes, as recommended in the context."}, {"group_name": "Order Status Propagation", "implementation_pattern": "domain event", "involved_microservices": ["Order Service", "Shipping Service"], "explaination": "Order status changes (e.g., shipped) are propagated to shipping via domain events, as per context guidance."}, {"group_name": "Aggregated Product and Order Views", "implementation_pattern": "api composition", "involved_microservices": ["Order Service", "Catalog Service", "Inventory Service"], "explaination": "For queries like order history with product details, API Composition is used to aggregate data from multiple services, as recommended in the context."}, {"group_name": "Order and Inventory Transactional Consistency", "implementation_pattern": "aggregate", "involved_microservices": ["Order Service", "Inventory Service", "Cart Service", "Catalog Service", "Rating/Review Service"], "explaination": "Aggregate pattern is used within services managing complex business entities to define transactional boundaries and ensure consistency, as per context."}, {"group_name": "Reporting and Dashboard Views", "implementation_pattern": "cqrs", "involved_microservices": ["Order Service", "Inventory Service", "Rating/Review Service"], "explaination": "CQRS is used for scenarios where read and write workloads differ, such as generating reports or dashboards that combine order, inventory, and rating data, as suggested in the context."}], "datastore": [{"datastore_name": "Catalog Database", "associated_microservices": ["Catalog Service"], "description": "Stores product catalog data, including product details, categories, and admin updates. Required for browsing, searching, and updating products (user stories 1, 6, 14)."}, {"datastore_name": "Cart Database", "associated_microservices": ["Cart Service"], "description": "Stores shopping cart contents for each user, including items and quantities. Needed for adding, updating, and viewing cart (user stories 2, 3)."}, {"datastore_name": "Checkout Database", "associated_microservices": ["Checkout Service"], "description": "Stores temporary checkout and payment transaction data. Required for processing checkouts and coordinating with other services (user story 4)."}, {"datastore_name": "Order Database", "associated_microservices": ["Order Service"], "description": "Stores order records, statuses, and history for users. Needed for order confirmation, status updates, and history (user stories 5, 7, 10)."}, {"datastore_name": "Shipping Database", "associated_microservices": ["Shipping Service"], "description": "Stores shipment records and status updates for orders. Required for tracking shipment status (user story 15)."}, {"datastore_name": "Inventory Database", "associated_microservices": ["Inventory Service"], "description": "Stores inventory levels and reservations for products. Needed to ensure product availability and prevent out-of-stock orders (user story 14)."}, {"datastore_name": "Rating/Review Database", "associated_microservices": ["Rating/Review Service"], "description": "Stores customer ratings and reviews for products and orders. Required for rating purchase experience (user story 12)."}, {"datastore_name": "Logging Database", "associated_microservices": ["Logging Service"], "description": "Stores logs of important events, errors, and failed transactions for monitoring and admin review (user stories 8, 13)."}, {"datastore_name": "Monitoring Database", "associated_microservices": ["Monitoring Service"], "description": "Stores service health, performance metrics, and alert data for real-time monitoring and alerting (user stories 9, 11)."}]}</t>
+          <t>{'microservices': [{'name': 'catalog-service', 'endpoints': [{'name': '/products', 'method': 'GET', 'inputs': ['search_query', 'filters'], 'outputs': ['product_list'], 'description': 'Browse and search available sock products with optional filters'}, {'name': '/products/{id}', 'method': 'GET', 'inputs': ['product_id'], 'outputs': ['product_details'], 'description': 'Get detailed information about a specific product'}, {'name': '/products', 'method': 'POST', 'inputs': ['product_name', 'description', 'price', 'image_url', 'category'], 'outputs': ['product_id', 'creation_status'], 'description': 'Admin endpoint to add new sock listings to the catalog'}, {'name': '/products/{id}', 'method': 'PUT', 'inputs': ['product_id', 'product_name', 'description', 'price', 'image_url', 'category'], 'outputs': ['update_status'], 'description': 'Admin endpoint to update existing sock listings'}, {'name': '/products/{id}', 'method': 'DELETE', 'inputs': ['product_id'], 'outputs': ['deletion_status'], 'description': 'Admin endpoint to remove sock listings from catalog'}], 'user_stories': ['1', '6'], 'parameters': ['product_id', 'product_name', 'description', 'price', 'image_url', 'category', 'stock_availability'], 'description': 'Manages the product catalog of socks, including browsing, searching, and CRUD operations for sock listings'}, {'name': 'cart-service', 'endpoints': [{'name': '/cart', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['cart_items', 'total_price'], 'description': 'View all items in the shopping cart for a user'}, {'name': '/cart/items', 'method': 'POST', 'inputs': ['user_id', 'product_id', 'quantity'], 'outputs': ['cart_update_status'], 'description': 'Add a sock product to the shopping cart'}, {'name': '/cart/items/{id}', 'method': 'PUT', 'inputs': ['user_id', 'cart_item_id', 'quantity'], 'outputs': ['update_status'], 'description': 'Update quantity of an item in the cart'}, {'name': '/cart/items/{id}', 'method': 'DELETE', 'inputs': ['user_id', 'cart_item_id'], 'outputs': ['deletion_status'], 'description': 'Remove an item from the shopping cart'}, {'name': '/cart/clear', 'method': 'DELETE', 'inputs': ['user_id'], 'outputs': ['clear_status'], 'description': 'Clear all items from the cart after successful checkout'}], 'user_stories': ['2', '3'], 'parameters': ['user_id', 'cart_id', 'product_id', 'quantity', 'cart_items'], 'description': 'Handles shopping cart operations including adding items, viewing cart contents, and updating quantities'}, {'name': 'order-service', 'endpoints': [{'name': '/orders', 'method': 'POST', 'inputs': ['user_id', 'cart_items', 'shipping_address', 'payment_details'], 'outputs': ['order_id', 'order_status', 'confirmation'], 'description': 'Process checkout and create a new order from cart items'}, {'name': '/orders/{id}', 'method': 'GET', 'inputs': ['order_id', 'user_id'], 'outputs': ['order_details', 'order_status', 'items', 'total_amount'], 'description': 'Get details of a specific order'}, {'name': '/orders', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['order_history'], 'description': 'Get order history for a customer'}, {'name': '/orders/{id}/status', 'method': 'PUT', 'inputs': ['order_id', 'new_status'], 'outputs': ['status_update_result'], 'description': 'Update order status during fulfillment process'}, {'name': '/orders/{id}/reorder', 'method': 'POST', 'inputs': ['user_id', 'order_id'], 'outputs': ['new_order_id', 'reorder_status'], 'description': 'Create a new order based on a previous purchase'}], 'user_stories': ['4', '5', '7', '10'], 'parameters': ['order_id', 'user_id', 'order_status', 'cart_items', 'shipping_address', 'payment_details', 'total_amount', 'order_date'], 'description': 'Manages order processing, checkout, payment, order confirmation, status tracking, order history, and reordering functionality'}, {'name': 'inventory-service', 'endpoints': [{'name': '/inventory/{product_id}', 'method': 'GET', 'inputs': ['product_id'], 'outputs': ['stock_level', 'availability_status'], 'description': 'Check stock availability for a specific product'}, {'name': '/inventory/check', 'method': 'POST', 'inputs': ['product_ids'], 'outputs': ['availability_map'], 'description': 'Check availability for multiple products at once'}, {'name': '/inventory/{product_id}/reserve', 'method': 'POST', 'inputs': ['product_id', 'quantity', 'order_id'], 'outputs': ['reservation_status'], 'description': 'Reserve stock for an order being placed'}, {'name': '/inventory/{product_id}/release', 'method': 'POST', 'inputs': ['product_id', 'quantity', 'order_id'], 'outputs': ['release_status'], 'description': 'Release reserved stock if order fails'}, {'name': '/inventory/{product_id}', 'method': 'PUT', 'inputs': ['product_id', 'quantity_change'], 'outputs': ['update_status', 'new_stock_level'], 'description': 'Update stock levels after order fulfillment or restocking'}], 'user_stories': ['14'], 'parameters': ['product_id', 'stock_level', 'reserved_quantity', 'available_quantity'], 'description': 'Tracks product availability and stock levels to prevent ordering out-of-stock items'}, {'name': 'shipping-service', 'endpoints': [{'name': '/shipments', 'method': 'POST', 'inputs': ['order_id', 'shipping_address', 'items'], 'outputs': ['shipment_id', 'tracking_number'], 'description': 'Create a shipment for a confirmed order'}, {'name': '/shipments/{id}', 'method': 'GET', 'inputs': ['shipment_id'], 'outputs': ['tracking_status', 'delivery_date', 'current_location'], 'description': 'Get shipment tracking information'}, {'name': '/shipments/order/{order_id}', 'method': 'GET', 'inputs': ['order_id'], 'outputs': ['shipment_details', 'tracking_number', 'delivery_status'], 'description': 'Get shipment information by order ID'}, {'name': '/shipments/{id}/status', 'method': 'PUT', 'inputs': ['shipment_id', 'status', 'location'], 'outputs': ['update_status'], 'description': 'Update shipment status and location'}], 'user_stories': ['15'], 'parameters': ['shipment_id', 'order_id', 'tracking_number', 'shipping_status', 'delivery_date', 'shipping_address'], 'description': 'Handles shipment tracking and delivery status updates for completed orders'}, {'name': 'review-service', 'endpoints': [{'name': '/reviews', 'method': 'POST', 'inputs': ['user_id', 'order_id', 'product_id', 'rating', 'comment'], 'outputs': ['review_id', 'submission_status'], 'description': 'Submit a rating and review for a purchased product'}, {'name': '/reviews/product/{product_id}', 'method': 'GET', 'inputs': ['product_id'], 'outputs': ['reviews_list', 'average_rating'], 'description': 'Get all reviews for a specific product'}, {'name': '/reviews/order/{order_id}', 'method': 'GET', 'inputs': ['order_id'], 'outputs': ['review_status', 'reviews'], 'description': 'Check if order has been reviewed'}], 'user_stories': ['12'], 'parameters': ['review_id', 'user_id', 'order_id', 'product_id', 'rating', 'comment', 'review_date'], 'description': 'Manages customer ratings and purchase experience feedback'}, {'name': 'monitoring-service', 'endpoints': [{'name': '/logs', 'method': 'POST', 'inputs': ['service_name', 'log_level', 'message', 'timestamp', 'context'], 'outputs': ['log_id'], 'description': 'Store log events from all services'}, {'name': '/logs', 'method': 'GET', 'inputs': ['service_name', 'log_level', 'start_date', 'end_date', 'search_query'], 'outputs': ['log_entries'], 'description': 'Query and review logs for debugging failed transactions'}, {'name': '/metrics', 'method': 'GET', 'inputs': ['service_name', 'metric_type'], 'outputs': ['prometheus_metrics'], 'description': 'Expose Prometheus-compatible metrics for service health and performance'}, {'name': '/health', 'method': 'GET', 'inputs': ['service_name'], 'outputs': ['health_status', 'uptime', 'response_time'], 'description': 'Check health status of services'}, {'name': '/alerts', 'method': 'POST', 'inputs': ['alert_type', 'severity', 'service_name', 'message'], 'outputs': ['alert_id', 'notification_status'], 'description': 'Create alerts for potential issues and notify admins'}, {'name': '/alerts', 'method': 'GET', 'inputs': ['status', 'severity'], 'outputs': ['alerts_list'], 'description': 'Retrieve active alerts for admin review'}], 'user_stories': ['8', '9', '11', '13'], 'parameters': ['log_id', 'service_name', 'log_level', 'timestamp', 'message', 'alert_id', 'alert_status', 'metric_data'], 'description': 'Provides logging, monitoring, health checks, performance metrics via Prometheus, real-time alerting, and log review capabilities for debugging'}], 'patterns': [{'group_name': 'Service Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['catalog-service', 'cart-service', 'order-service', 'inventory-service', 'shipping-service', 'review-service', 'monitoring-service'], 'explaination': 'I chose the database per service pattern because each microservice has different data storage requirements and needs to be independently deployable and scalable. This ensures loose coupling between services and allows each service to choose its optimal data storage technology. The context explicitly recommends this pattern for all services to maintain service autonomy.'}, {'group_name': 'Order Checkout Coordination', 'implementation_pattern': 'saga', 'involved_microservices': ['order-service', 'inventory-service', 'cart-service', 'catalog-service'], 'explaination': 'I chose the saga pattern for order checkout because this business transaction spans multiple services and requires distributed transaction management. When a customer checks out (user stories 4, 5), the system must coordinate: validating product availability in inventory-service, reserving stock, creating the order in order-service, and clearing the cart in cart-service. The saga ensures data consistency across these services while maintaining eventual consistency if any step fails.'}, {'group_name': 'Order Fulfillment Coordination', 'implementation_pattern': 'saga', 'involved_microservices': ['order-service', 'inventory-service', 'shipping-service'], 'explaination': 'I chose the saga pattern for order fulfillment (user story 7) because this process requires coordinating multiple services: updating order status in order-service, decrementing actual stock in inventory-service, and creating shipment in shipping-service. The saga handles the orchestration and compensating transactions if shipment creation fails, ensuring consistency across the fulfillment workflow.'}, {'group_name': 'Cart View with Availability', 'implementation_pattern': 'api composition', 'involved_microservices': ['cart-service', 'inventory-service', 'catalog-service'], 'explaination': 'I chose API composition for the cart view (user story 3) because customers need to see their cart items along with current availability status and product details. This requires combining data from cart-service (cart items), inventory-service (stock availability), and catalog-service (product details). API composition allows the cart-service to aggregate this data from multiple sources in real-time.'}, {'group_name': 'Order History with Tracking', 'implementation_pattern': 'api composition', 'involved_microservices': ['order-service', 'shipping-service'], 'explaination': 'I chose API composition for order history (user stories 10, 15) because customers need to view their past orders along with current shipment status. This requires combining order details from order-service with tracking information from shipping-service. The order-service composes data from both sources to provide a complete view.'}, {'group_name': 'Product Catalog with Stock', 'implementation_pattern': 'api composition', 'involved_microservices': ['catalog-service', 'inventory-service'], 'explaination': 'I chose API composition for product browsing (user story 1) because customers need to see product listings with real-time availability status. The catalog-service composes product information with stock levels from inventory-service to prevent customers from viewing out-of-stock items or to display availability accurately.'}, {'group_name': 'Event-Driven Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['order-service', 'inventory-service', 'shipping-service', 'review-service', 'monitoring-service', 'cart-service'], 'explaination': 'I chose domain events for inter-service communication because the context recommends event-driven architecture for this e-commerce system. Events like OrderPlaced trigger inventory updates, OrderShipped notifies shipping-service, OrderCompleted triggers review collection (user story 12), and all events flow to monitoring-service for logging (user stories 8, 11, 13). This decouples services and enables asynchronous processing.'}, {'group_name': 'Service Domain Models', 'implementation_pattern': 'aggregate', 'involved_microservices': ['catalog-service', 'cart-service', 'order-service', 'inventory-service'], 'explaination': "I chose the aggregate pattern to define clear boundaries within each service's domain model. Catalog-service has Product aggregate, cart-service has Cart aggregate, order-service has Order aggregate (which is the root for order items), and inventory-service has StockItem aggregate. This ensures consistency within each aggregate and defines transaction boundaries for each service."}, {'group_name': 'Monitoring Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['monitoring-service'], 'explaination': 'I chose CQRS for monitoring-service because it needs to handle complex queries across service logs and provide real-time dashboards with performance metrics (user story 9) while also ingesting high-volume write operations from all services logging events (user story 8). Separating the command model (log writes) from the query model (log analysis, metrics aggregation) optimizes both operations and enables efficient admin log reviews (user story 13).'}, {'group_name': 'Order Audit Trail', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['order-service'], 'explaination': 'I chose event sourcing for order-service because orders go through multiple state changes (created, confirmed, paid, fulfilled, shipped) and maintaining a complete audit trail is critical for user stories 5, 7, and 10. Event sourcing stores all order state changes as events, enabling order history reconstruction, debugging failed transactions, and providing detailed order status tracking throughout the fulfillment process.'}], 'datastore': [{'datastore_name': 'catalog_db', 'associated_microservices': ['catalog-service'], 'description': 'Stores product catalog data including sock product details, names, descriptions, prices, images, and categories. Supports user stories 1 and 6 for browsing products and admin management of sock listings. Requires structured data storage for product information with efficient search and filtering capabilities.'}, {'datastore_name': 'cart_db', 'associated_microservices': ['cart-service'], 'description': 'Stores shopping cart data including user cart items, product references, quantities, and session information. Supports user stories 2 and 3 for adding items to cart and viewing/updating cart contents. Requires fast read/write access for temporary cart data with user-based partitioning.'}, {'datastore_name': 'order_db', 'associated_microservices': ['order-service'], 'description': 'Stores order information including order details, payment information, shipping addresses, order status, and order history. Uses event sourcing pattern to maintain complete audit trail of order state changes. Supports user stories 4, 5, 7, and 10 for checkout, order confirmation, status tracking, and order history. Requires transactional consistency and event store capabilities for maintaining order state transitions.'}, {'datastore_name': 'inventory_db', 'associated_microservices': ['inventory-service'], 'description': 'Stores inventory data including stock levels, reserved quantities, and product availability status. Supports user story 14 for tracking product availability and preventing out-of-stock orders. Requires strong consistency for stock level updates and support for concurrent reservation transactions to avoid overselling.'}, {'datastore_name': 'shipping_db', 'associated_microservices': ['shipping-service'], 'description': 'Stores shipment information including tracking numbers, delivery status, shipping addresses, and location updates. Supports user story 15 for shipment tracking after purchase. Requires structured storage for shipment records with efficient lookup by order ID and tracking number.'}, {'datastore_name': 'review_db', 'associated_microservices': ['review-service'], 'description': 'Stores customer ratings and feedback including review text, ratings, product associations, and user information. Supports user story 12 for rating purchase experiences. Requires storage for review data with indexing by product ID and user ID for efficient retrieval.'}, {'datastore_name': 'monitoring_db', 'associated_microservices': ['monitoring-service'], 'description': 'Stores logs, metrics, health check data, and alert information from all services. Uses CQRS pattern with separate write and read models for high-volume log ingestion and complex query capabilities. Supports user stories 8, 9, 11, and 13 for event logging, Prometheus metrics, real-time alerting, and admin log review for debugging. Requires time-series storage for metrics, full-text search for logs, and efficient write throughput for high-volume event ingestion.'}]}</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0119</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6604</v>
+        <v>0.4927</v>
       </c>
     </row>
   </sheetData>
